--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_20_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_20_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>345199.1354215036</v>
+        <v>343589.8542493443</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8000239.36979189</v>
+        <v>8000239.369791891</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673443</v>
+        <v>603248.4937673439</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>239.9879130210783</v>
       </c>
       <c r="C11" t="n">
         <v>222.5269631286053</v>
       </c>
       <c r="D11" t="n">
-        <v>211.9371129782807</v>
+        <v>86.501069138692</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>239.1844414298595</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>269.7464768811127</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>111.8285827859281</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.233700684801676</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>68.04769262841242</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>108.3748977061046</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>185.0063298277326</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>206.4950400750107</v>
       </c>
       <c r="X11" t="n">
         <v>226.9851720360668</v>
@@ -1452,22 +1452,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>4.699136922236477</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>16.54083766139911</v>
+        <v>2.323283750981602</v>
       </c>
       <c r="G12" t="n">
-        <v>135.8398569848641</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>97.71325251404465</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>37.62587671097607</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>6.79900307951516</v>
+        <v>6.799003079515145</v>
       </c>
       <c r="S12" t="n">
-        <v>143.7533427911297</v>
+        <v>1.007414148727392</v>
       </c>
       <c r="T12" t="n">
         <v>194.10392297596</v>
@@ -1509,13 +1509,13 @@
         <v>90.05465850702299</v>
       </c>
       <c r="W12" t="n">
-        <v>108.9490545185173</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>63.0270565610752</v>
+        <v>77.74533823133642</v>
       </c>
       <c r="Y12" t="n">
-        <v>62.93676713490208</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1543,13 +1543,13 @@
         <v>23.98443253374987</v>
       </c>
       <c r="H13" t="n">
-        <v>8.273202207802191</v>
+        <v>151.0191308502045</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4.233474627595697</v>
+        <v>4.233474627595683</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>59.30153252655394</v>
       </c>
       <c r="T13" t="n">
-        <v>79.81338309784189</v>
+        <v>151.1754934250422</v>
       </c>
       <c r="U13" t="n">
         <v>143.5043397223264</v>
@@ -1588,10 +1588,10 @@
         <v>109.3917146814257</v>
       </c>
       <c r="W13" t="n">
-        <v>215.1391800213889</v>
+        <v>143.7770696941887</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>82.96372674663488</v>
       </c>
       <c r="Y13" t="n">
         <v>75.83872470969251</v>
@@ -1616,13 +1616,13 @@
         <v>239.1844414298595</v>
       </c>
       <c r="F14" t="n">
-        <v>89.37299656222191</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>269.7464768811127</v>
       </c>
       <c r="H14" t="n">
-        <v>167.9475609641863</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,16 +1661,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>108.3748977061046</v>
       </c>
       <c r="V14" t="n">
-        <v>185.0063298277326</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>106.9668176119695</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>226.9851720360668</v>
       </c>
       <c r="Y14" t="n">
         <v>243.4920100136513</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>76.13141338870153</v>
+        <v>23.78725500746506</v>
       </c>
       <c r="C15" t="n">
-        <v>29.96257034591346</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>4.699136922236477</v>
+        <v>124.03674276408</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>14.89915181299867</v>
       </c>
       <c r="F15" t="n">
         <v>2.323283750981602</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>135.8398569848641</v>
       </c>
       <c r="H15" t="n">
-        <v>97.71325251404465</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>37.62587671097607</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>6.79900307951516</v>
+        <v>6.799003079515145</v>
       </c>
       <c r="S15" t="n">
-        <v>1.007414148727396</v>
+        <v>1.007414148727392</v>
       </c>
       <c r="T15" t="n">
-        <v>194.10392297596</v>
+        <v>51.35799433355775</v>
       </c>
       <c r="U15" t="n">
-        <v>83.09652842683921</v>
+        <v>225.8424570692415</v>
       </c>
       <c r="V15" t="n">
-        <v>90.05465850702299</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>63.0270565610752</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>62.93676713490208</v>
       </c>
     </row>
     <row r="16">
@@ -1774,19 +1774,19 @@
         <v>3.688034004166894</v>
       </c>
       <c r="F16" t="n">
-        <v>2.675119380528969</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>23.98443253374987</v>
+        <v>166.7303611761521</v>
       </c>
       <c r="H16" t="n">
-        <v>8.273202207802191</v>
+        <v>8.273202207802187</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>4.233474627595683</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>202.0474611689562</v>
+        <v>59.30153252655394</v>
       </c>
       <c r="T16" t="n">
-        <v>222.5593117402442</v>
+        <v>79.81338309784189</v>
       </c>
       <c r="U16" t="n">
-        <v>219.0999246771222</v>
+        <v>143.5043397223264</v>
       </c>
       <c r="V16" t="n">
         <v>109.3917146814257</v>
@@ -1831,7 +1831,7 @@
         <v>82.96372674663488</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.83872470969251</v>
+        <v>147.2008350368929</v>
       </c>
     </row>
     <row r="17">
@@ -1850,16 +1850,16 @@
         <v>133.0951089680631</v>
       </c>
       <c r="E17" t="n">
-        <v>160.3424374196419</v>
+        <v>160.342437419642</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>100.4082227335984</v>
       </c>
       <c r="G17" t="n">
         <v>190.9044728708952</v>
       </c>
       <c r="H17" t="n">
-        <v>89.1055569539687</v>
+        <v>89.10555695396872</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>29.53289369588706</v>
       </c>
       <c r="V17" t="n">
-        <v>87.96227422115115</v>
+        <v>106.1643258175151</v>
       </c>
       <c r="W17" t="n">
         <v>127.6530360647932</v>
       </c>
       <c r="X17" t="n">
-        <v>148.1431680258492</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>164.6500060034337</v>
+        <v>164.6500060034338</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>97.71325251404465</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>37.62587671097608</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.79900307951516</v>
+        <v>6.799003079515145</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,13 +1977,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>4.25452441662164</v>
+        <v>4.254524416621669</v>
       </c>
       <c r="V18" t="n">
-        <v>11.21265449680541</v>
+        <v>11.21265449680544</v>
       </c>
       <c r="W18" t="n">
-        <v>214.7580790565608</v>
+        <v>183.5640246317144</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -1999,31 +1999,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>106.5146371586082</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.7303611761521</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.0191308502045</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4.233474627595697</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>202.0474611689562</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9713790876243209</v>
+        <v>0.9713790876243484</v>
       </c>
       <c r="U19" t="n">
-        <v>64.66233571210886</v>
+        <v>64.66233571210888</v>
       </c>
       <c r="V19" t="n">
-        <v>35.81768520616257</v>
+        <v>30.54971067120817</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>4.121722736417325</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>161.1459090108607</v>
       </c>
       <c r="C20" t="n">
-        <v>143.6849591183877</v>
+        <v>29.30035138690108</v>
       </c>
       <c r="D20" t="n">
         <v>133.0951089680631</v>
       </c>
       <c r="E20" t="n">
-        <v>160.3424374196419</v>
+        <v>160.342437419642</v>
       </c>
       <c r="F20" t="n">
         <v>185.2881130890916</v>
       </c>
       <c r="G20" t="n">
-        <v>190.9044728708951</v>
+        <v>190.9044728708952</v>
       </c>
       <c r="H20" t="n">
-        <v>89.10555695396872</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>29.53289369588703</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>106.164325817515</v>
+        <v>106.1643258175151</v>
       </c>
       <c r="W20" t="n">
         <v>127.6530360647932</v>
       </c>
       <c r="X20" t="n">
-        <v>76.26601865536763</v>
+        <v>148.1431680258492</v>
       </c>
       <c r="Y20" t="n">
-        <v>164.6500060034337</v>
+        <v>164.6500060034338</v>
       </c>
     </row>
     <row r="21">
@@ -2214,16 +2214,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>148.6955541704086</v>
+        <v>4.254524416621669</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>11.21265449680544</v>
       </c>
       <c r="W21" t="n">
-        <v>30.10705050829975</v>
+        <v>190.3630277112295</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>4.233474627595697</v>
+        <v>4.233474627595683</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>29.3087028966049</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>202.0474611689562</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9713790876243209</v>
+        <v>222.5593117402442</v>
       </c>
       <c r="U22" t="n">
-        <v>64.66233571210886</v>
+        <v>286.2502683647287</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>30.54971067120817</v>
       </c>
       <c r="W22" t="n">
-        <v>64.93506568397115</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>13.88995414935885</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>133.0951089680631</v>
       </c>
       <c r="E23" t="n">
-        <v>160.3424374196419</v>
+        <v>160.342437419642</v>
       </c>
       <c r="F23" t="n">
         <v>185.2881130890916</v>
@@ -2333,7 +2333,7 @@
         <v>190.9044728708952</v>
       </c>
       <c r="H23" t="n">
-        <v>89.1055569539687</v>
+        <v>89.10555695396874</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>29.53289369588704</v>
+        <v>29.53289369588706</v>
       </c>
       <c r="V23" t="n">
-        <v>106.164325817515</v>
+        <v>106.1643258175151</v>
       </c>
       <c r="W23" t="n">
         <v>127.6530360647932</v>
@@ -2384,7 +2384,7 @@
         <v>148.1431680258492</v>
       </c>
       <c r="Y23" t="n">
-        <v>164.6500060034337</v>
+        <v>164.6500060034338</v>
       </c>
     </row>
     <row r="24">
@@ -2406,7 +2406,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>6.799003079515145</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2451,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>4.25452441662164</v>
+        <v>92.62790400952289</v>
       </c>
       <c r="V24" t="n">
-        <v>182.9037574284573</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,16 +2488,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7303611761521</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>117.5402481357105</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4.233474627595683</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>202.0474611689562</v>
+        <v>105.9297907866781</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9713790876243209</v>
+        <v>222.5593117402442</v>
       </c>
       <c r="U25" t="n">
-        <v>64.66233571210886</v>
+        <v>286.2502683647287</v>
       </c>
       <c r="V25" t="n">
-        <v>30.54971067120815</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>64.93506568397117</v>
       </c>
       <c r="X25" t="n">
-        <v>4.121722736417297</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>108.7770127093773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>231.851485596371</v>
       </c>
       <c r="I26" t="n">
-        <v>23.2885614532572</v>
+        <v>23.28856145325717</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.13762531698637</v>
+        <v>66.13762531698636</v>
       </c>
       <c r="T26" t="n">
         <v>131.9516172605971</v>
@@ -2652,7 +2652,7 @@
         <v>97.71325251404465</v>
       </c>
       <c r="I27" t="n">
-        <v>37.62587671097608</v>
+        <v>37.62587671097607</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>6.79900307951516</v>
+        <v>6.799003079515145</v>
       </c>
       <c r="S27" t="n">
         <v>143.7533427911297</v>
@@ -2731,7 +2731,7 @@
         <v>72.17712683998688</v>
       </c>
       <c r="I28" t="n">
-        <v>38.69824412549293</v>
+        <v>38.69824412549292</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76940982432941</v>
+        <v>41.7694098243294</v>
       </c>
       <c r="S28" t="n">
         <v>123.2054571587386</v>
@@ -2810,7 +2810,7 @@
         <v>231.851485596371</v>
       </c>
       <c r="I29" t="n">
-        <v>23.2885614532572</v>
+        <v>23.28856145325717</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.13762531698637</v>
+        <v>66.13762531698636</v>
       </c>
       <c r="T29" t="n">
         <v>131.9516172605971</v>
@@ -2889,7 +2889,7 @@
         <v>97.71325251404465</v>
       </c>
       <c r="I30" t="n">
-        <v>37.62587671097608</v>
+        <v>37.62587671097607</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>6.79900307951516</v>
+        <v>6.799003079515145</v>
       </c>
       <c r="S30" t="n">
         <v>143.7533427911297</v>
@@ -2968,7 +2968,7 @@
         <v>72.17712683998688</v>
       </c>
       <c r="I31" t="n">
-        <v>38.69824412549293</v>
+        <v>38.69824412549292</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76940982432941</v>
+        <v>41.7694098243294</v>
       </c>
       <c r="S31" t="n">
         <v>123.2054571587386</v>
@@ -3047,7 +3047,7 @@
         <v>231.851485596371</v>
       </c>
       <c r="I32" t="n">
-        <v>23.28856145325719</v>
+        <v>23.28856145325717</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.13762531698636</v>
+        <v>66.13762531698637</v>
       </c>
       <c r="T32" t="n">
         <v>131.9516172605971</v>
@@ -3126,7 +3126,7 @@
         <v>97.71325251404465</v>
       </c>
       <c r="I33" t="n">
-        <v>37.62587671097608</v>
+        <v>37.62587671097607</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>6.79900307951516</v>
+        <v>6.799003079515145</v>
       </c>
       <c r="S33" t="n">
         <v>143.7533427911297</v>
@@ -3187,25 +3187,25 @@
         <v>100.9899761717197</v>
       </c>
       <c r="C34" t="n">
-        <v>88.40481708841024</v>
+        <v>88.40481708841025</v>
       </c>
       <c r="D34" t="n">
-        <v>69.77346900799476</v>
+        <v>69.77346900799478</v>
       </c>
       <c r="E34" t="n">
-        <v>67.59195863635158</v>
+        <v>67.59195863635159</v>
       </c>
       <c r="F34" t="n">
-        <v>66.57904401271365</v>
+        <v>66.57904401271367</v>
       </c>
       <c r="G34" t="n">
-        <v>87.88835716593455</v>
+        <v>87.88835716593456</v>
       </c>
       <c r="H34" t="n">
-        <v>72.17712683998688</v>
+        <v>72.1771268399869</v>
       </c>
       <c r="I34" t="n">
-        <v>38.69824412549291</v>
+        <v>38.69824412549292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>30.62386788468935</v>
+        <v>30.62386788468932</v>
       </c>
       <c r="U35" t="n">
-        <v>70.95107296238156</v>
+        <v>70.95107296238153</v>
       </c>
       <c r="V35" t="n">
-        <v>147.5825050840096</v>
+        <v>147.5825050840095</v>
       </c>
       <c r="W35" t="n">
-        <v>169.0712153312877</v>
+        <v>169.0712153312876</v>
       </c>
       <c r="X35" t="n">
         <v>189.5613472923437</v>
       </c>
       <c r="Y35" t="n">
-        <v>206.0681852699283</v>
+        <v>206.0681852699282</v>
       </c>
     </row>
     <row r="36">
@@ -3348,22 +3348,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>135.8398569848641</v>
       </c>
       <c r="H36" t="n">
-        <v>97.71325251404465</v>
+        <v>37.34853520412855</v>
       </c>
       <c r="I36" t="n">
-        <v>37.62587671097608</v>
+        <v>37.62587671097607</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T36" t="n">
-        <v>165.1480238852756</v>
+        <v>194.10392297596</v>
       </c>
       <c r="U36" t="n">
         <v>225.8424570692415</v>
@@ -3408,7 +3408,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>25.60323181735214</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3424,10 +3424,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,16 +3436,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.7303611761521</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>77.21673553293539</v>
       </c>
       <c r="J37" t="n">
-        <v>4.233474627595697</v>
+        <v>4.233474627595683</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>120.611413834547</v>
       </c>
       <c r="S37" t="n">
-        <v>70.57392420962481</v>
+        <v>21.87770778283085</v>
       </c>
       <c r="T37" t="n">
-        <v>42.38955835411884</v>
+        <v>42.38955835411881</v>
       </c>
       <c r="U37" t="n">
-        <v>106.0805149786034</v>
+        <v>286.2502683647287</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>71.96788993770264</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>106.3532449504656</v>
       </c>
       <c r="X37" t="n">
-        <v>45.53990200291182</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>38.41489996596945</v>
+        <v>38.41489996596943</v>
       </c>
     </row>
     <row r="38">
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>30.62386788468935</v>
+        <v>30.62386788468932</v>
       </c>
       <c r="U38" t="n">
-        <v>70.95107296238156</v>
+        <v>70.95107296238153</v>
       </c>
       <c r="V38" t="n">
-        <v>147.5825050840096</v>
+        <v>147.5825050840095</v>
       </c>
       <c r="W38" t="n">
-        <v>169.0712153312877</v>
+        <v>169.0712153312876</v>
       </c>
       <c r="X38" t="n">
         <v>189.5613472923437</v>
       </c>
       <c r="Y38" t="n">
-        <v>206.0681852699283</v>
+        <v>206.0681852699282</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3594,13 +3594,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.8398569848641</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>97.71325251404465</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>37.62587671097607</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>6.79900307951516</v>
+        <v>6.799003079515145</v>
       </c>
       <c r="S39" t="n">
-        <v>143.7533427911297</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>194.10392297596</v>
+        <v>144.7124510695019</v>
       </c>
       <c r="U39" t="n">
-        <v>137.3434449316731</v>
+        <v>225.8424570692415</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3670,19 +3670,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>106.0875970376507</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>151.0191308502045</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>4.233474627595697</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>21.87770778283089</v>
+        <v>202.0474611689562</v>
       </c>
       <c r="T40" t="n">
-        <v>42.38955835411884</v>
+        <v>42.38955835411881</v>
       </c>
       <c r="U40" t="n">
-        <v>106.0805149786034</v>
+        <v>106.0805149786033</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>71.96788993770264</v>
       </c>
       <c r="W40" t="n">
-        <v>106.3532449504657</v>
+        <v>106.3532449504656</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>45.53990200291179</v>
       </c>
       <c r="Y40" t="n">
-        <v>76.70746768109721</v>
+        <v>38.41489996596943</v>
       </c>
     </row>
     <row r="41">
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>30.62386788468935</v>
+        <v>30.62386788468932</v>
       </c>
       <c r="U41" t="n">
-        <v>70.95107296238156</v>
+        <v>70.95107296238153</v>
       </c>
       <c r="V41" t="n">
-        <v>147.5825050840096</v>
+        <v>147.5825050840095</v>
       </c>
       <c r="W41" t="n">
-        <v>169.0712153312877</v>
+        <v>169.0712153312876</v>
       </c>
       <c r="X41" t="n">
         <v>189.5613472923437</v>
       </c>
       <c r="Y41" t="n">
-        <v>206.0681852699283</v>
+        <v>206.0681852699282</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3837,7 +3837,7 @@
         <v>97.71325251404465</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>37.62587671097607</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,19 +3864,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>6.799003079515145</v>
       </c>
       <c r="S42" t="n">
-        <v>8.669977620291942</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>194.10392297596</v>
       </c>
       <c r="U42" t="n">
-        <v>45.67270368311616</v>
+        <v>225.8424570692415</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>183.4091152429681</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,22 +3904,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.7303611761521</v>
+        <v>133.4084027779679</v>
       </c>
       <c r="H43" t="n">
-        <v>84.29915491665167</v>
+        <v>151.0191308502045</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>4.233474627595697</v>
+        <v>4.233474627595683</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>21.87770778283089</v>
+        <v>21.87770778283085</v>
       </c>
       <c r="T43" t="n">
-        <v>42.38955835411884</v>
+        <v>42.38955835411881</v>
       </c>
       <c r="U43" t="n">
-        <v>106.0805149786034</v>
+        <v>106.0805149786033</v>
       </c>
       <c r="V43" t="n">
-        <v>71.96788993770267</v>
+        <v>71.96788993770264</v>
       </c>
       <c r="W43" t="n">
-        <v>106.3532449504657</v>
+        <v>106.3532449504656</v>
       </c>
       <c r="X43" t="n">
-        <v>45.53990200291182</v>
+        <v>45.53990200291179</v>
       </c>
       <c r="Y43" t="n">
-        <v>38.41489996596945</v>
+        <v>38.41489996596943</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3989,7 @@
         <v>226.7062923555861</v>
       </c>
       <c r="G44" t="n">
-        <v>232.3226521373897</v>
+        <v>232.3226521373896</v>
       </c>
       <c r="H44" t="n">
         <v>130.5237362204632</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>30.62386788468935</v>
+        <v>30.62386788468933</v>
       </c>
       <c r="U44" t="n">
-        <v>70.95107296238156</v>
+        <v>70.95107296238152</v>
       </c>
       <c r="V44" t="n">
-        <v>147.5825050840096</v>
+        <v>147.5825050840095</v>
       </c>
       <c r="W44" t="n">
-        <v>169.0712153312877</v>
+        <v>169.0712153312876</v>
       </c>
       <c r="X44" t="n">
         <v>189.5613472923437</v>
       </c>
       <c r="Y44" t="n">
-        <v>206.0681852699283</v>
+        <v>206.0681852699282</v>
       </c>
     </row>
     <row r="45">
@@ -4068,7 +4068,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>91.6707412485561</v>
+        <v>135.8398569848641</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>6.79900307951516</v>
+        <v>6.799003079515145</v>
       </c>
       <c r="S45" t="n">
-        <v>143.7533427911297</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>13.93416958983469</v>
+        <v>113.5183966446569</v>
       </c>
       <c r="U45" t="n">
         <v>225.8424570692415</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.7303611761521</v>
@@ -4153,10 +4153,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>17.65839598135676</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>4.233474627595697</v>
+        <v>4.233474627595683</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>21.87770778283089</v>
+        <v>21.87770778283085</v>
       </c>
       <c r="T46" t="n">
-        <v>42.38955835411884</v>
+        <v>42.38955835411881</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2502683647287</v>
+        <v>158.4876163231545</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>106.3532449504657</v>
+        <v>106.3532449504656</v>
       </c>
       <c r="X46" t="n">
-        <v>45.53990200291182</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>38.41489996596943</v>
       </c>
     </row>
   </sheetData>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>853.2798305829617</v>
+        <v>582.7478486872345</v>
       </c>
       <c r="C11" t="n">
-        <v>628.5051203520472</v>
+        <v>357.9731384563202</v>
       </c>
       <c r="D11" t="n">
-        <v>414.4272284547938</v>
+        <v>270.5983211445096</v>
       </c>
       <c r="E11" t="n">
-        <v>414.4272284547938</v>
+        <v>28.99787525576264</v>
       </c>
       <c r="F11" t="n">
-        <v>414.4272284547938</v>
+        <v>28.99787525576264</v>
       </c>
       <c r="G11" t="n">
-        <v>141.9560396859931</v>
+        <v>28.99787525576264</v>
       </c>
       <c r="H11" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576264</v>
       </c>
       <c r="I11" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576264</v>
       </c>
       <c r="J11" t="n">
-        <v>85.90061049936639</v>
+        <v>85.90061049936597</v>
       </c>
       <c r="K11" t="n">
-        <v>221.9215783630815</v>
+        <v>221.921578363081</v>
       </c>
       <c r="L11" t="n">
-        <v>427.5693786526959</v>
+        <v>427.5693786526953</v>
       </c>
       <c r="M11" t="n">
-        <v>688.0616180080103</v>
+        <v>688.06161800801</v>
       </c>
       <c r="N11" t="n">
         <v>957.3827025111785</v>
@@ -5066,25 +5066,25 @@
         <v>1449.893762788132</v>
       </c>
       <c r="S11" t="n">
-        <v>1447.63749947015</v>
+        <v>1449.893762788132</v>
       </c>
       <c r="T11" t="n">
-        <v>1378.902456411148</v>
+        <v>1449.893762788132</v>
       </c>
       <c r="U11" t="n">
-        <v>1269.432862768618</v>
+        <v>1449.893762788132</v>
       </c>
       <c r="V11" t="n">
-        <v>1082.557782134544</v>
+        <v>1263.018682154059</v>
       </c>
       <c r="W11" t="n">
-        <v>1082.557782134544</v>
+        <v>1054.437833593442</v>
       </c>
       <c r="X11" t="n">
-        <v>853.2798305829617</v>
+        <v>825.1598820418591</v>
       </c>
       <c r="Y11" t="n">
-        <v>853.2798305829617</v>
+        <v>825.1598820418591</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>665.5426627856805</v>
+        <v>506.4879048941016</v>
       </c>
       <c r="C12" t="n">
-        <v>491.0896335045535</v>
+        <v>332.0348756129745</v>
       </c>
       <c r="D12" t="n">
-        <v>342.1552238433022</v>
+        <v>327.2882726612205</v>
       </c>
       <c r="E12" t="n">
-        <v>182.9177688378467</v>
+        <v>168.050817655765</v>
       </c>
       <c r="F12" t="n">
-        <v>166.2098520081506</v>
+        <v>165.7040663921472</v>
       </c>
       <c r="G12" t="n">
-        <v>28.99787525576263</v>
+        <v>165.7040663921472</v>
       </c>
       <c r="H12" t="n">
-        <v>28.99787525576263</v>
+        <v>67.00381132745565</v>
       </c>
       <c r="I12" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576264</v>
       </c>
       <c r="J12" t="n">
-        <v>168.9010325741029</v>
+        <v>168.901032574103</v>
       </c>
       <c r="K12" t="n">
-        <v>272.818070350547</v>
+        <v>272.8180703505471</v>
       </c>
       <c r="L12" t="n">
-        <v>458.8698929551095</v>
+        <v>458.8698929551097</v>
       </c>
       <c r="M12" t="n">
-        <v>695.3404626093596</v>
+        <v>695.3404626093597</v>
       </c>
       <c r="N12" t="n">
-        <v>952.4783495179645</v>
+        <v>952.4783495179647</v>
       </c>
       <c r="O12" t="n">
         <v>1165.489484876804</v>
       </c>
       <c r="P12" t="n">
-        <v>1317.116634152414</v>
+        <v>1317.116634152415</v>
       </c>
       <c r="Q12" t="n">
         <v>1449.893762788132</v>
@@ -5145,25 +5145,25 @@
         <v>1443.026082909834</v>
       </c>
       <c r="S12" t="n">
-        <v>1297.820686151117</v>
+        <v>1442.008492860614</v>
       </c>
       <c r="T12" t="n">
-        <v>1101.756117488531</v>
+        <v>1245.943924198029</v>
       </c>
       <c r="U12" t="n">
-        <v>1017.820230188693</v>
+        <v>1162.008036898191</v>
       </c>
       <c r="V12" t="n">
-        <v>926.8559286664479</v>
+        <v>1071.043735375946</v>
       </c>
       <c r="W12" t="n">
-        <v>816.8063786477435</v>
+        <v>816.8063786477439</v>
       </c>
       <c r="X12" t="n">
-        <v>753.142685151708</v>
+        <v>738.2757339696263</v>
       </c>
       <c r="Y12" t="n">
-        <v>689.5701930962513</v>
+        <v>530.5154352046724</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.9622182718023</v>
+        <v>247.1500249812995</v>
       </c>
       <c r="C13" t="n">
-        <v>78.21384205339264</v>
+        <v>222.4016487628899</v>
       </c>
       <c r="D13" t="n">
-        <v>72.28500935055418</v>
+        <v>216.4728160600514</v>
       </c>
       <c r="E13" t="n">
-        <v>68.55972247765833</v>
+        <v>212.7475291871556</v>
       </c>
       <c r="F13" t="n">
-        <v>65.85758168924522</v>
+        <v>210.0453883987425</v>
       </c>
       <c r="G13" t="n">
-        <v>41.63088216020495</v>
+        <v>185.8186888697022</v>
       </c>
       <c r="H13" t="n">
-        <v>33.27411225333405</v>
+        <v>33.27411225333403</v>
       </c>
       <c r="I13" t="n">
-        <v>33.27411225333405</v>
+        <v>33.27411225333403</v>
       </c>
       <c r="J13" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576264</v>
       </c>
       <c r="K13" t="n">
-        <v>151.9473816770444</v>
+        <v>151.9473816770445</v>
       </c>
       <c r="L13" t="n">
-        <v>364.8068544657376</v>
+        <v>364.8068544657377</v>
       </c>
       <c r="M13" t="n">
-        <v>599.6264465155751</v>
+        <v>599.6264465155753</v>
       </c>
       <c r="N13" t="n">
-        <v>834.2971699359156</v>
+        <v>834.2971699359157</v>
       </c>
       <c r="O13" t="n">
         <v>1035.037270057343</v>
@@ -5227,22 +5227,22 @@
         <v>1142.587448376499</v>
       </c>
       <c r="T13" t="n">
-        <v>1061.96786948979</v>
+        <v>989.8849297653456</v>
       </c>
       <c r="U13" t="n">
-        <v>917.0139909823898</v>
+        <v>844.9310512579452</v>
       </c>
       <c r="V13" t="n">
-        <v>806.5173094860002</v>
+        <v>734.4343697615556</v>
       </c>
       <c r="W13" t="n">
         <v>589.2050064340922</v>
       </c>
       <c r="X13" t="n">
-        <v>361.2154555360748</v>
+        <v>505.4032622455721</v>
       </c>
       <c r="Y13" t="n">
-        <v>284.610683102042</v>
+        <v>428.7984898115392</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1017.067156887743</v>
+        <v>757.1474018105636</v>
       </c>
       <c r="C14" t="n">
-        <v>1017.067156887743</v>
+        <v>757.1474018105636</v>
       </c>
       <c r="D14" t="n">
-        <v>802.9892649904901</v>
+        <v>543.0695099133104</v>
       </c>
       <c r="E14" t="n">
-        <v>561.3888191017431</v>
+        <v>301.4690640245634</v>
       </c>
       <c r="F14" t="n">
-        <v>471.1130649984888</v>
+        <v>301.4690640245634</v>
       </c>
       <c r="G14" t="n">
-        <v>198.6418762296882</v>
+        <v>28.99787525576263</v>
       </c>
       <c r="H14" t="n">
         <v>28.99787525576263</v>
@@ -5276,22 +5276,22 @@
         <v>28.99787525576263</v>
       </c>
       <c r="J14" t="n">
-        <v>85.90061049936594</v>
+        <v>85.90061049936565</v>
       </c>
       <c r="K14" t="n">
-        <v>221.9215783630809</v>
+        <v>221.9215783630807</v>
       </c>
       <c r="L14" t="n">
-        <v>427.5693786526953</v>
+        <v>427.5693786526951</v>
       </c>
       <c r="M14" t="n">
         <v>688.0616180080099</v>
       </c>
       <c r="N14" t="n">
-        <v>957.382702511178</v>
+        <v>957.3827025111781</v>
       </c>
       <c r="O14" t="n">
-        <v>1198.359704313246</v>
+        <v>1198.359704313247</v>
       </c>
       <c r="P14" t="n">
         <v>1369.52699929238</v>
@@ -5309,19 +5309,19 @@
         <v>1449.893762788131</v>
       </c>
       <c r="U14" t="n">
-        <v>1449.893762788131</v>
+        <v>1340.424169145602</v>
       </c>
       <c r="V14" t="n">
-        <v>1263.018682154058</v>
+        <v>1340.424169145602</v>
       </c>
       <c r="W14" t="n">
-        <v>1263.018682154058</v>
+        <v>1232.376878628461</v>
       </c>
       <c r="X14" t="n">
-        <v>1263.018682154058</v>
+        <v>1003.098927076878</v>
       </c>
       <c r="Y14" t="n">
-        <v>1017.067156887743</v>
+        <v>757.1474018105636</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>324.2941621129113</v>
+        <v>521.3548560761831</v>
       </c>
       <c r="C15" t="n">
-        <v>294.0289395412815</v>
+        <v>346.9018267950561</v>
       </c>
       <c r="D15" t="n">
-        <v>289.2823365895275</v>
+        <v>221.6121876394197</v>
       </c>
       <c r="E15" t="n">
-        <v>130.044881584072</v>
+        <v>206.5625393434615</v>
       </c>
       <c r="F15" t="n">
-        <v>127.6981303204542</v>
+        <v>204.2157880798437</v>
       </c>
       <c r="G15" t="n">
-        <v>127.6981303204542</v>
+        <v>67.00381132745564</v>
       </c>
       <c r="H15" t="n">
-        <v>28.99787525576263</v>
+        <v>67.00381132745564</v>
       </c>
       <c r="I15" t="n">
         <v>28.99787525576263</v>
       </c>
       <c r="J15" t="n">
-        <v>168.9010325741029</v>
+        <v>44.07090758709823</v>
       </c>
       <c r="K15" t="n">
-        <v>272.818070350547</v>
+        <v>147.9879453635423</v>
       </c>
       <c r="L15" t="n">
-        <v>458.8698929551095</v>
+        <v>334.0397679681049</v>
       </c>
       <c r="M15" t="n">
-        <v>695.3404626093596</v>
+        <v>570.5103376223551</v>
       </c>
       <c r="N15" t="n">
-        <v>952.4783495179645</v>
+        <v>827.6482245309601</v>
       </c>
       <c r="O15" t="n">
-        <v>1165.489484876804</v>
+        <v>1040.6593598898</v>
       </c>
       <c r="P15" t="n">
-        <v>1317.116634152414</v>
+        <v>1192.28650916541</v>
       </c>
       <c r="Q15" t="n">
         <v>1449.893762788131</v>
@@ -5385,22 +5385,22 @@
         <v>1442.008492860614</v>
       </c>
       <c r="T15" t="n">
-        <v>1245.943924198028</v>
+        <v>1390.131730907525</v>
       </c>
       <c r="U15" t="n">
         <v>1162.00803689819</v>
       </c>
       <c r="V15" t="n">
-        <v>1071.043735375945</v>
+        <v>926.8559286664477</v>
       </c>
       <c r="W15" t="n">
-        <v>816.806378647743</v>
+        <v>672.6185719382461</v>
       </c>
       <c r="X15" t="n">
-        <v>608.9548784422102</v>
+        <v>608.9548784422105</v>
       </c>
       <c r="Y15" t="n">
-        <v>401.1945796772563</v>
+        <v>545.3823863867539</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.68598127423088</v>
+        <v>391.3378316907968</v>
       </c>
       <c r="C16" t="n">
-        <v>73.93760505582122</v>
+        <v>366.5894554723872</v>
       </c>
       <c r="D16" t="n">
-        <v>68.00877235298276</v>
+        <v>360.6606227695487</v>
       </c>
       <c r="E16" t="n">
-        <v>64.28348548008691</v>
+        <v>356.9353358966528</v>
       </c>
       <c r="F16" t="n">
-        <v>61.58134469167381</v>
+        <v>210.0453883987425</v>
       </c>
       <c r="G16" t="n">
-        <v>37.35464516263352</v>
+        <v>41.63088216020492</v>
       </c>
       <c r="H16" t="n">
-        <v>28.99787525576263</v>
+        <v>33.27411225333402</v>
       </c>
       <c r="I16" t="n">
-        <v>28.99787525576263</v>
+        <v>33.27411225333402</v>
       </c>
       <c r="J16" t="n">
         <v>28.99787525576263</v>
       </c>
       <c r="K16" t="n">
-        <v>151.9473816770444</v>
+        <v>151.9473816770445</v>
       </c>
       <c r="L16" t="n">
-        <v>364.8068544657376</v>
+        <v>364.8068544657377</v>
       </c>
       <c r="M16" t="n">
-        <v>599.6264465155751</v>
+        <v>599.6264465155753</v>
       </c>
       <c r="N16" t="n">
-        <v>834.2971699359156</v>
+        <v>834.2971699359157</v>
       </c>
       <c r="O16" t="n">
         <v>1035.037270057343</v>
@@ -5461,25 +5461,25 @@
         <v>1202.487986282109</v>
       </c>
       <c r="S16" t="n">
-        <v>998.3996416670019</v>
+        <v>1142.587448376499</v>
       </c>
       <c r="T16" t="n">
-        <v>773.5922560707957</v>
+        <v>1061.96786948979</v>
       </c>
       <c r="U16" t="n">
-        <v>552.2792008413793</v>
+        <v>917.0139909823901</v>
       </c>
       <c r="V16" t="n">
-        <v>441.7825193449896</v>
+        <v>806.5173094860004</v>
       </c>
       <c r="W16" t="n">
-        <v>296.5531560175262</v>
+        <v>661.287946158537</v>
       </c>
       <c r="X16" t="n">
-        <v>212.7514118290062</v>
+        <v>577.486201970017</v>
       </c>
       <c r="Y16" t="n">
-        <v>136.1466393949733</v>
+        <v>428.7984898115392</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>753.3741735698605</v>
+        <v>854.7966207755153</v>
       </c>
       <c r="C17" t="n">
-        <v>608.2378512280548</v>
+        <v>709.6602984337095</v>
       </c>
       <c r="D17" t="n">
-        <v>473.7983472199102</v>
+        <v>575.2207944255649</v>
       </c>
       <c r="E17" t="n">
-        <v>311.8362892202716</v>
+        <v>413.2587364259265</v>
       </c>
       <c r="F17" t="n">
         <v>311.8362892202716</v>
@@ -5513,22 +5513,22 @@
         <v>28.99787525576263</v>
       </c>
       <c r="J17" t="n">
-        <v>85.90061049936588</v>
+        <v>85.900610499366</v>
       </c>
       <c r="K17" t="n">
-        <v>221.9215783630809</v>
+        <v>221.921578363081</v>
       </c>
       <c r="L17" t="n">
-        <v>427.5693786526953</v>
+        <v>427.5693786526955</v>
       </c>
       <c r="M17" t="n">
-        <v>688.0616180080099</v>
+        <v>688.0616180080102</v>
       </c>
       <c r="N17" t="n">
-        <v>957.382702511178</v>
+        <v>957.3827025111784</v>
       </c>
       <c r="O17" t="n">
-        <v>1198.359704313246</v>
+        <v>1198.359704313247</v>
       </c>
       <c r="P17" t="n">
         <v>1369.52699929238</v>
@@ -5546,19 +5546,19 @@
         <v>1449.893762788131</v>
       </c>
       <c r="U17" t="n">
-        <v>1449.893762788131</v>
+        <v>1420.06255703471</v>
       </c>
       <c r="V17" t="n">
-        <v>1361.042980746564</v>
+        <v>1312.825864289745</v>
       </c>
       <c r="W17" t="n">
-        <v>1232.100520075056</v>
+        <v>1183.883403618237</v>
       </c>
       <c r="X17" t="n">
-        <v>1082.460956412582</v>
+        <v>1183.883403618237</v>
       </c>
       <c r="Y17" t="n">
-        <v>916.1478190353764</v>
+        <v>1017.570266241031</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>794.8635183130961</v>
+        <v>658.1573271767114</v>
       </c>
       <c r="C18" t="n">
-        <v>620.4104890319691</v>
+        <v>483.7042978955844</v>
       </c>
       <c r="D18" t="n">
-        <v>471.4760793707177</v>
+        <v>334.7698882343332</v>
       </c>
       <c r="E18" t="n">
-        <v>312.2386243652622</v>
+        <v>175.5324332288777</v>
       </c>
       <c r="F18" t="n">
-        <v>165.7040663921472</v>
+        <v>28.99787525576263</v>
       </c>
       <c r="G18" t="n">
-        <v>165.7040663921472</v>
+        <v>28.99787525576263</v>
       </c>
       <c r="H18" t="n">
-        <v>67.00381132745564</v>
+        <v>28.99787525576263</v>
       </c>
       <c r="I18" t="n">
         <v>28.99787525576263</v>
       </c>
       <c r="J18" t="n">
-        <v>44.0709075870982</v>
+        <v>44.07090758709823</v>
       </c>
       <c r="K18" t="n">
         <v>147.9879453635423</v>
       </c>
       <c r="L18" t="n">
-        <v>334.0397679681048</v>
+        <v>334.0397679681049</v>
       </c>
       <c r="M18" t="n">
-        <v>570.5103376223549</v>
+        <v>570.5103376223551</v>
       </c>
       <c r="N18" t="n">
-        <v>827.6482245309597</v>
+        <v>827.6482245309601</v>
       </c>
       <c r="O18" t="n">
-        <v>1040.659359889799</v>
+        <v>1040.6593598898</v>
       </c>
       <c r="P18" t="n">
-        <v>1192.286509165409</v>
+        <v>1398.454225395175</v>
       </c>
       <c r="Q18" t="n">
         <v>1449.893762788131</v>
@@ -5631,13 +5631,13 @@
         <v>1427.402669865967</v>
       </c>
       <c r="W18" t="n">
-        <v>1210.475317283583</v>
+        <v>1241.984463167266</v>
       </c>
       <c r="X18" t="n">
-        <v>1002.62381707805</v>
+        <v>1034.132962961733</v>
       </c>
       <c r="Y18" t="n">
-        <v>794.8635183130961</v>
+        <v>826.3726641967794</v>
       </c>
     </row>
     <row r="19">
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>180.1640597512444</v>
+        <v>500.0735975230041</v>
       </c>
       <c r="C19" t="n">
-        <v>180.1640597512444</v>
+        <v>500.0735975230041</v>
       </c>
       <c r="D19" t="n">
-        <v>180.1640597512444</v>
+        <v>349.9569581106683</v>
       </c>
       <c r="E19" t="n">
-        <v>180.1640597512444</v>
+        <v>349.9569581106683</v>
       </c>
       <c r="F19" t="n">
-        <v>33.27411225333404</v>
+        <v>349.9569581106683</v>
       </c>
       <c r="G19" t="n">
-        <v>33.27411225333404</v>
+        <v>181.5424518721308</v>
       </c>
       <c r="H19" t="n">
-        <v>33.27411225333404</v>
+        <v>28.99787525576263</v>
       </c>
       <c r="I19" t="n">
-        <v>33.27411225333404</v>
+        <v>28.99787525576263</v>
       </c>
       <c r="J19" t="n">
         <v>28.99787525576263</v>
       </c>
       <c r="K19" t="n">
-        <v>151.9473816770444</v>
+        <v>151.9473816770445</v>
       </c>
       <c r="L19" t="n">
-        <v>364.8068544657376</v>
+        <v>364.8068544657377</v>
       </c>
       <c r="M19" t="n">
-        <v>599.6264465155751</v>
+        <v>599.6264465155753</v>
       </c>
       <c r="N19" t="n">
-        <v>834.2971699359156</v>
+        <v>834.2971699359157</v>
       </c>
       <c r="O19" t="n">
         <v>1035.037270057343</v>
@@ -5698,25 +5698,25 @@
         <v>1202.487986282109</v>
       </c>
       <c r="S19" t="n">
-        <v>1202.487986282109</v>
+        <v>998.3996416670021</v>
       </c>
       <c r="T19" t="n">
-        <v>1201.506795284509</v>
+        <v>997.4184506694018</v>
       </c>
       <c r="U19" t="n">
-        <v>1136.191304666217</v>
+        <v>932.1029600511099</v>
       </c>
       <c r="V19" t="n">
-        <v>1100.011824659992</v>
+        <v>901.2446664438289</v>
       </c>
       <c r="W19" t="n">
-        <v>810.5946546230316</v>
+        <v>611.8274964068682</v>
       </c>
       <c r="X19" t="n">
-        <v>582.6051037250143</v>
+        <v>607.6641401074568</v>
       </c>
       <c r="Y19" t="n">
-        <v>361.8125245814841</v>
+        <v>607.6641401074568</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>940.533883760862</v>
+        <v>734.9882628664625</v>
       </c>
       <c r="C20" t="n">
-        <v>795.3975614190562</v>
+        <v>705.3919483342393</v>
       </c>
       <c r="D20" t="n">
-        <v>660.9580574109116</v>
+        <v>570.9524443260947</v>
       </c>
       <c r="E20" t="n">
-        <v>498.9959994112732</v>
+        <v>408.9903863264564</v>
       </c>
       <c r="F20" t="n">
-        <v>311.8362892202716</v>
+        <v>221.8306761354548</v>
       </c>
       <c r="G20" t="n">
-        <v>119.0034883405795</v>
+        <v>28.99787525576263</v>
       </c>
       <c r="H20" t="n">
-        <v>28.99787525576262</v>
+        <v>28.99787525576263</v>
       </c>
       <c r="I20" t="n">
-        <v>28.99787525576262</v>
+        <v>28.99787525576263</v>
       </c>
       <c r="J20" t="n">
-        <v>85.90061049936571</v>
+        <v>85.900610499366</v>
       </c>
       <c r="K20" t="n">
-        <v>221.9215783630808</v>
+        <v>221.921578363081</v>
       </c>
       <c r="L20" t="n">
-        <v>427.5693786526952</v>
+        <v>427.5693786526955</v>
       </c>
       <c r="M20" t="n">
-        <v>688.0616180080098</v>
+        <v>688.0616180080102</v>
       </c>
       <c r="N20" t="n">
-        <v>957.3827025111779</v>
+        <v>957.3827025111781</v>
       </c>
       <c r="O20" t="n">
-        <v>1198.359704313246</v>
+        <v>1198.359704313247</v>
       </c>
       <c r="P20" t="n">
-        <v>1369.526999292379</v>
+        <v>1369.52699929238</v>
       </c>
       <c r="Q20" t="n">
         <v>1449.893762788131</v>
@@ -5783,19 +5783,19 @@
         <v>1449.893762788131</v>
       </c>
       <c r="U20" t="n">
-        <v>1420.06255703471</v>
+        <v>1449.893762788131</v>
       </c>
       <c r="V20" t="n">
-        <v>1312.825864289745</v>
+        <v>1342.657070043167</v>
       </c>
       <c r="W20" t="n">
-        <v>1183.883403618237</v>
+        <v>1213.714609371658</v>
       </c>
       <c r="X20" t="n">
-        <v>1106.847021138068</v>
+        <v>1064.075045709184</v>
       </c>
       <c r="Y20" t="n">
-        <v>940.533883760862</v>
+        <v>897.7619083319784</v>
       </c>
     </row>
     <row r="21">
@@ -5814,40 +5814,40 @@
         <v>334.7698882343332</v>
       </c>
       <c r="E21" t="n">
-        <v>175.5324332288776</v>
+        <v>175.5324332288777</v>
       </c>
       <c r="F21" t="n">
-        <v>28.99787525576262</v>
+        <v>28.99787525576263</v>
       </c>
       <c r="G21" t="n">
-        <v>28.99787525576262</v>
+        <v>28.99787525576263</v>
       </c>
       <c r="H21" t="n">
-        <v>28.99787525576262</v>
+        <v>28.99787525576263</v>
       </c>
       <c r="I21" t="n">
-        <v>28.99787525576262</v>
+        <v>28.99787525576263</v>
       </c>
       <c r="J21" t="n">
-        <v>44.07090758709819</v>
+        <v>168.901032574103</v>
       </c>
       <c r="K21" t="n">
-        <v>354.1556615933075</v>
+        <v>272.8180703505471</v>
       </c>
       <c r="L21" t="n">
-        <v>540.20748419787</v>
+        <v>458.8698929551097</v>
       </c>
       <c r="M21" t="n">
-        <v>776.6780538521201</v>
+        <v>695.3404626093597</v>
       </c>
       <c r="N21" t="n">
-        <v>1033.815940760725</v>
+        <v>952.4783495179647</v>
       </c>
       <c r="O21" t="n">
-        <v>1246.827076119564</v>
+        <v>1165.489484876804</v>
       </c>
       <c r="P21" t="n">
-        <v>1398.454225395175</v>
+        <v>1317.116634152415</v>
       </c>
       <c r="Q21" t="n">
         <v>1449.893762788131</v>
@@ -5862,13 +5862,13 @@
         <v>1449.893762788131</v>
       </c>
       <c r="U21" t="n">
-        <v>1299.696233323072</v>
+        <v>1445.596263377402</v>
       </c>
       <c r="V21" t="n">
-        <v>1064.544125091329</v>
+        <v>1434.270349744266</v>
       </c>
       <c r="W21" t="n">
-        <v>1034.132962961733</v>
+        <v>1241.984463167266</v>
       </c>
       <c r="X21" t="n">
         <v>1034.132962961733</v>
@@ -5902,25 +5902,25 @@
         <v>185.8186888697022</v>
       </c>
       <c r="H22" t="n">
-        <v>33.27411225333403</v>
+        <v>33.27411225333402</v>
       </c>
       <c r="I22" t="n">
-        <v>33.27411225333403</v>
+        <v>33.27411225333402</v>
       </c>
       <c r="J22" t="n">
-        <v>28.99787525576262</v>
+        <v>28.99787525576263</v>
       </c>
       <c r="K22" t="n">
-        <v>151.9473816770444</v>
+        <v>151.9473816770445</v>
       </c>
       <c r="L22" t="n">
-        <v>364.8068544657376</v>
+        <v>364.8068544657377</v>
       </c>
       <c r="M22" t="n">
-        <v>599.6264465155751</v>
+        <v>599.6264465155753</v>
       </c>
       <c r="N22" t="n">
-        <v>834.2971699359156</v>
+        <v>834.2971699359157</v>
       </c>
       <c r="O22" t="n">
         <v>1035.037270057343</v>
@@ -5932,22 +5932,22 @@
         <v>1202.487986282109</v>
       </c>
       <c r="R22" t="n">
-        <v>1172.883235881498</v>
+        <v>1202.487986282109</v>
       </c>
       <c r="S22" t="n">
-        <v>968.7948912663908</v>
+        <v>1202.487986282109</v>
       </c>
       <c r="T22" t="n">
-        <v>967.8137002687904</v>
+        <v>977.6806006859032</v>
       </c>
       <c r="U22" t="n">
-        <v>902.4982096504987</v>
+        <v>688.5389154690055</v>
       </c>
       <c r="V22" t="n">
-        <v>647.8137214446118</v>
+        <v>657.6806218617245</v>
       </c>
       <c r="W22" t="n">
-        <v>582.2227460062571</v>
+        <v>368.2634518247639</v>
       </c>
       <c r="X22" t="n">
         <v>354.2331951082398</v>
@@ -5966,13 +5966,13 @@
         <v>945.33749246796</v>
       </c>
       <c r="C23" t="n">
-        <v>800.2011701261542</v>
+        <v>800.2011701261545</v>
       </c>
       <c r="D23" t="n">
-        <v>665.7616661180098</v>
+        <v>665.76166611801</v>
       </c>
       <c r="E23" t="n">
-        <v>503.7996081183717</v>
+        <v>503.7996081183718</v>
       </c>
       <c r="F23" t="n">
         <v>316.6398979273702</v>
@@ -5981,34 +5981,34 @@
         <v>123.8070970476779</v>
       </c>
       <c r="H23" t="n">
-        <v>33.801483962861</v>
+        <v>33.80148396286101</v>
       </c>
       <c r="I23" t="n">
-        <v>33.801483962861</v>
+        <v>33.80148396286101</v>
       </c>
       <c r="J23" t="n">
-        <v>115.8892051009788</v>
+        <v>258.1098682268174</v>
       </c>
       <c r="K23" t="n">
-        <v>251.9101729646938</v>
+        <v>435.7032686808221</v>
       </c>
       <c r="L23" t="n">
-        <v>457.5579732543082</v>
+        <v>641.3510689704366</v>
       </c>
       <c r="M23" t="n">
-        <v>718.0502126096228</v>
+        <v>901.8433083257513</v>
       </c>
       <c r="N23" t="n">
-        <v>987.3712971127909</v>
+        <v>1171.16439282892</v>
       </c>
       <c r="O23" t="n">
-        <v>1228.348298914859</v>
+        <v>1412.141394630988</v>
       </c>
       <c r="P23" t="n">
-        <v>1399.515593893992</v>
+        <v>1583.308689610121</v>
       </c>
       <c r="Q23" t="n">
-        <v>1690.07419814305</v>
+        <v>1663.675453105873</v>
       </c>
       <c r="R23" t="n">
         <v>1690.07419814305</v>
@@ -6026,7 +6026,7 @@
         <v>1553.006299644664</v>
       </c>
       <c r="W23" t="n">
-        <v>1424.063838973155</v>
+        <v>1424.063838973156</v>
       </c>
       <c r="X23" t="n">
         <v>1274.424275310682</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>662.9609358838098</v>
+        <v>516.4263779106948</v>
       </c>
       <c r="C24" t="n">
-        <v>488.5079066026828</v>
+        <v>341.9733486295678</v>
       </c>
       <c r="D24" t="n">
-        <v>339.5734969414315</v>
+        <v>193.0389389683165</v>
       </c>
       <c r="E24" t="n">
-        <v>180.336041935976</v>
+        <v>33.80148396286101</v>
       </c>
       <c r="F24" t="n">
-        <v>33.801483962861</v>
+        <v>33.80148396286101</v>
       </c>
       <c r="G24" t="n">
-        <v>33.801483962861</v>
+        <v>33.80148396286101</v>
       </c>
       <c r="H24" t="n">
-        <v>33.801483962861</v>
+        <v>33.80148396286101</v>
       </c>
       <c r="I24" t="n">
-        <v>33.801483962861</v>
+        <v>33.80148396286101</v>
       </c>
       <c r="J24" t="n">
-        <v>173.7046412812013</v>
+        <v>48.87451629419661</v>
       </c>
       <c r="K24" t="n">
-        <v>277.6216790576454</v>
+        <v>156.8123268308187</v>
       </c>
       <c r="L24" t="n">
-        <v>463.673501662208</v>
+        <v>575.1056908712237</v>
       </c>
       <c r="M24" t="n">
-        <v>700.1440713164581</v>
+        <v>811.5762605254738</v>
       </c>
       <c r="N24" t="n">
-        <v>957.2819582250629</v>
+        <v>1068.714147434079</v>
       </c>
       <c r="O24" t="n">
-        <v>1170.293093583902</v>
+        <v>1487.007511474484</v>
       </c>
       <c r="P24" t="n">
-        <v>1430.658145891603</v>
+        <v>1638.634660750094</v>
       </c>
       <c r="Q24" t="n">
         <v>1690.07419814305</v>
       </c>
       <c r="R24" t="n">
-        <v>1690.07419814305</v>
+        <v>1683.206518264752</v>
       </c>
       <c r="S24" t="n">
-        <v>1690.07419814305</v>
+        <v>1683.206518264752</v>
       </c>
       <c r="T24" t="n">
-        <v>1690.07419814305</v>
+        <v>1683.206518264752</v>
       </c>
       <c r="U24" t="n">
-        <v>1685.776698732321</v>
+        <v>1589.642978861194</v>
       </c>
       <c r="V24" t="n">
-        <v>1501.025428602566</v>
+        <v>1354.490870629451</v>
       </c>
       <c r="W24" t="n">
-        <v>1246.788071874365</v>
+        <v>1100.25351390125</v>
       </c>
       <c r="X24" t="n">
-        <v>1038.936571668832</v>
+        <v>892.4020136957167</v>
       </c>
       <c r="Y24" t="n">
-        <v>831.1762729038778</v>
+        <v>684.6417149307629</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>320.9435135708031</v>
+        <v>38.0777209604324</v>
       </c>
       <c r="C25" t="n">
-        <v>320.9435135708031</v>
+        <v>38.0777209604324</v>
       </c>
       <c r="D25" t="n">
-        <v>320.9435135708031</v>
+        <v>38.0777209604324</v>
       </c>
       <c r="E25" t="n">
-        <v>320.9435135708031</v>
+        <v>38.0777209604324</v>
       </c>
       <c r="F25" t="n">
-        <v>320.9435135708031</v>
+        <v>38.0777209604324</v>
       </c>
       <c r="G25" t="n">
-        <v>152.5290073322656</v>
+        <v>38.0777209604324</v>
       </c>
       <c r="H25" t="n">
-        <v>152.5290073322656</v>
+        <v>38.0777209604324</v>
       </c>
       <c r="I25" t="n">
-        <v>33.801483962861</v>
+        <v>38.0777209604324</v>
       </c>
       <c r="J25" t="n">
-        <v>33.801483962861</v>
+        <v>33.80148396286101</v>
       </c>
       <c r="K25" t="n">
-        <v>156.7509903841428</v>
+        <v>156.7509903841429</v>
       </c>
       <c r="L25" t="n">
         <v>369.610463172836</v>
@@ -6172,25 +6172,25 @@
         <v>1207.291594989208</v>
       </c>
       <c r="S25" t="n">
-        <v>1003.2032503741</v>
+        <v>1100.291806315795</v>
       </c>
       <c r="T25" t="n">
-        <v>1002.2220593765</v>
+        <v>875.4844207195891</v>
       </c>
       <c r="U25" t="n">
-        <v>936.9065687582082</v>
+        <v>586.3427355026914</v>
       </c>
       <c r="V25" t="n">
-        <v>906.0482751509272</v>
+        <v>331.6582472968045</v>
       </c>
       <c r="W25" t="n">
-        <v>616.6311051139667</v>
+        <v>266.0672718584498</v>
       </c>
       <c r="X25" t="n">
-        <v>612.4677488145553</v>
+        <v>38.0777209604324</v>
       </c>
       <c r="Y25" t="n">
-        <v>502.5919784010429</v>
+        <v>38.0777209604324</v>
       </c>
     </row>
     <row r="26">
@@ -6200,58 +6200,58 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1873.862981641647</v>
+        <v>1873.862981641648</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.538852590344</v>
+        <v>1584.538852590345</v>
       </c>
       <c r="D26" t="n">
-        <v>1305.911541872702</v>
+        <v>1305.911541872703</v>
       </c>
       <c r="E26" t="n">
-        <v>999.7616771635669</v>
+        <v>999.7616771635671</v>
       </c>
       <c r="F26" t="n">
-        <v>668.4141602630681</v>
+        <v>668.4141602630682</v>
       </c>
       <c r="G26" t="n">
-        <v>331.3935526738787</v>
+        <v>331.3935526738783</v>
       </c>
       <c r="H26" t="n">
-        <v>97.20013287956418</v>
+        <v>97.20013287956415</v>
       </c>
       <c r="I26" t="n">
         <v>73.67633343182963</v>
       </c>
       <c r="J26" t="n">
-        <v>297.984717695786</v>
+        <v>297.9847176957861</v>
       </c>
       <c r="K26" t="n">
-        <v>645.6891475102941</v>
+        <v>754.9096440049542</v>
       </c>
       <c r="L26" t="n">
-        <v>851.3369477999084</v>
+        <v>1374.042046699515</v>
       </c>
       <c r="M26" t="n">
-        <v>1556.847585313127</v>
+        <v>1634.534286054829</v>
       </c>
       <c r="N26" t="n">
-        <v>2259.14212498416</v>
+        <v>2336.828825725862</v>
       </c>
       <c r="O26" t="n">
-        <v>2877.111306236346</v>
+        <v>2954.798006978048</v>
       </c>
       <c r="P26" t="n">
-        <v>3366.859322305247</v>
+        <v>3444.546023046949</v>
       </c>
       <c r="Q26" t="n">
-        <v>3657.417926554304</v>
+        <v>3683.816671591481</v>
       </c>
       <c r="R26" t="n">
-        <v>3683.816671591482</v>
+        <v>3683.816671591481</v>
       </c>
       <c r="S26" t="n">
-        <v>3617.010989453112</v>
+        <v>3617.010989453111</v>
       </c>
       <c r="T26" t="n">
         <v>3483.72652757372</v>
@@ -6263,10 +6263,10 @@
         <v>3058.28301565634</v>
       </c>
       <c r="W26" t="n">
-        <v>2785.152748275335</v>
+        <v>2785.152748275334</v>
       </c>
       <c r="X26" t="n">
-        <v>2491.325377903364</v>
+        <v>2491.325377903363</v>
       </c>
       <c r="Y26" t="n">
         <v>2180.824433816661</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>976.7539532415511</v>
+        <v>976.7539532415509</v>
       </c>
       <c r="C27" t="n">
-        <v>802.3009239604241</v>
+        <v>802.3009239604239</v>
       </c>
       <c r="D27" t="n">
-        <v>653.3665142991729</v>
+        <v>653.3665142991726</v>
       </c>
       <c r="E27" t="n">
-        <v>494.1290592937173</v>
+        <v>494.1290592937172</v>
       </c>
       <c r="F27" t="n">
-        <v>347.5945013206023</v>
+        <v>347.5945013206022</v>
       </c>
       <c r="G27" t="n">
         <v>210.3825245682142</v>
@@ -6303,31 +6303,31 @@
         <v>73.67633343182963</v>
       </c>
       <c r="J27" t="n">
-        <v>213.57949075017</v>
+        <v>88.74936576316523</v>
       </c>
       <c r="K27" t="n">
-        <v>579.3171131690669</v>
+        <v>298.8892037716563</v>
       </c>
       <c r="L27" t="n">
-        <v>1132.500877624054</v>
+        <v>852.0729682266435</v>
       </c>
       <c r="M27" t="n">
-        <v>1429.761528752946</v>
+        <v>1088.543537880894</v>
       </c>
       <c r="N27" t="n">
-        <v>1686.899415661551</v>
+        <v>1820.230375389616</v>
       </c>
       <c r="O27" t="n">
-        <v>1899.91055102039</v>
+        <v>2423.165206832418</v>
       </c>
       <c r="P27" t="n">
-        <v>2366.815841249539</v>
+        <v>2574.792356108029</v>
       </c>
       <c r="Q27" t="n">
-        <v>2626.231893500986</v>
+        <v>2626.231893500985</v>
       </c>
       <c r="R27" t="n">
-        <v>2619.364213622688</v>
+        <v>2619.364213622687</v>
       </c>
       <c r="S27" t="n">
         <v>2474.158816863971</v>
@@ -6385,19 +6385,19 @@
         <v>147.5387775206253</v>
       </c>
       <c r="K28" t="n">
-        <v>348.5418679120225</v>
+        <v>348.5418679120226</v>
       </c>
       <c r="L28" t="n">
         <v>639.4549246708311</v>
       </c>
       <c r="M28" t="n">
-        <v>952.328100690784</v>
+        <v>952.3281006907841</v>
       </c>
       <c r="N28" t="n">
         <v>1265.05240808124</v>
       </c>
       <c r="O28" t="n">
-        <v>1543.846092172782</v>
+        <v>1543.846092172783</v>
       </c>
       <c r="P28" t="n">
         <v>1770.146828491807</v>
@@ -6455,34 +6455,34 @@
         <v>331.3935526738787</v>
       </c>
       <c r="H29" t="n">
-        <v>97.20013287956418</v>
+        <v>97.20013287956415</v>
       </c>
       <c r="I29" t="n">
         <v>73.67633343182963</v>
       </c>
       <c r="J29" t="n">
-        <v>297.984717695786</v>
+        <v>297.9847176957861</v>
       </c>
       <c r="K29" t="n">
-        <v>754.9096440049541</v>
+        <v>754.9096440049542</v>
       </c>
       <c r="L29" t="n">
-        <v>1374.042046699514</v>
+        <v>1374.042046699515</v>
       </c>
       <c r="M29" t="n">
-        <v>1634.534286054829</v>
+        <v>2079.552684212734</v>
       </c>
       <c r="N29" t="n">
-        <v>2259.142124984159</v>
+        <v>2781.847223883766</v>
       </c>
       <c r="O29" t="n">
-        <v>2877.111306236346</v>
+        <v>3399.816405135953</v>
       </c>
       <c r="P29" t="n">
-        <v>3366.859322305247</v>
+        <v>3603.449908095729</v>
       </c>
       <c r="Q29" t="n">
-        <v>3657.417926554304</v>
+        <v>3683.816671591481</v>
       </c>
       <c r="R29" t="n">
         <v>3683.816671591481</v>
@@ -6494,10 +6494,10 @@
         <v>3483.72652757372</v>
       </c>
       <c r="U29" t="n">
-        <v>3309.707515110803</v>
+        <v>3309.707515110802</v>
       </c>
       <c r="V29" t="n">
-        <v>3058.283015656341</v>
+        <v>3058.28301565634</v>
       </c>
       <c r="W29" t="n">
         <v>2785.152748275335</v>
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>976.7539532415511</v>
+        <v>976.7539532415509</v>
       </c>
       <c r="C30" t="n">
-        <v>802.3009239604241</v>
+        <v>802.3009239604239</v>
       </c>
       <c r="D30" t="n">
-        <v>653.3665142991729</v>
+        <v>653.3665142991726</v>
       </c>
       <c r="E30" t="n">
-        <v>494.1290592937173</v>
+        <v>494.1290592937172</v>
       </c>
       <c r="F30" t="n">
-        <v>347.5945013206023</v>
+        <v>347.5945013206022</v>
       </c>
       <c r="G30" t="n">
         <v>210.3825245682142</v>
@@ -6546,13 +6546,13 @@
         <v>579.3171131690669</v>
       </c>
       <c r="L30" t="n">
-        <v>765.3689357736295</v>
+        <v>1132.500877624054</v>
       </c>
       <c r="M30" t="n">
-        <v>1039.837832668984</v>
+        <v>1368.971447278304</v>
       </c>
       <c r="N30" t="n">
-        <v>1296.975719577589</v>
+        <v>1626.109334186909</v>
       </c>
       <c r="O30" t="n">
         <v>1899.91055102039</v>
@@ -6561,10 +6561,10 @@
         <v>2366.815841249539</v>
       </c>
       <c r="Q30" t="n">
-        <v>2626.231893500986</v>
+        <v>2626.231893500985</v>
       </c>
       <c r="R30" t="n">
-        <v>2619.364213622688</v>
+        <v>2619.364213622687</v>
       </c>
       <c r="S30" t="n">
         <v>2474.158816863971</v>
@@ -6622,13 +6622,13 @@
         <v>147.5387775206253</v>
       </c>
       <c r="K31" t="n">
-        <v>348.5418679120225</v>
+        <v>348.5418679120226</v>
       </c>
       <c r="L31" t="n">
         <v>639.4549246708311</v>
       </c>
       <c r="M31" t="n">
-        <v>952.3281006907844</v>
+        <v>952.3281006907841</v>
       </c>
       <c r="N31" t="n">
         <v>1265.05240808124</v>
@@ -6683,49 +6683,49 @@
         <v>1305.911541872702</v>
       </c>
       <c r="E32" t="n">
-        <v>999.7616771635671</v>
+        <v>999.7616771635664</v>
       </c>
       <c r="F32" t="n">
-        <v>668.4141602630682</v>
+        <v>668.4141602630676</v>
       </c>
       <c r="G32" t="n">
-        <v>331.3935526738782</v>
+        <v>331.3935526738783</v>
       </c>
       <c r="H32" t="n">
-        <v>97.20013287956417</v>
+        <v>97.20013287956415</v>
       </c>
       <c r="I32" t="n">
         <v>73.67633343182963</v>
       </c>
       <c r="J32" t="n">
-        <v>297.984717695786</v>
+        <v>297.9847176957861</v>
       </c>
       <c r="K32" t="n">
-        <v>754.9096440049541</v>
+        <v>754.9096440049542</v>
       </c>
       <c r="L32" t="n">
-        <v>1374.042046699514</v>
+        <v>1374.042046699515</v>
       </c>
       <c r="M32" t="n">
-        <v>1634.534286054829</v>
+        <v>2079.552684212734</v>
       </c>
       <c r="N32" t="n">
-        <v>2259.14212498416</v>
+        <v>2781.847223883766</v>
       </c>
       <c r="O32" t="n">
-        <v>2877.111306236346</v>
+        <v>3113.701892026829</v>
       </c>
       <c r="P32" t="n">
-        <v>3366.859322305247</v>
+        <v>3603.44990809573</v>
       </c>
       <c r="Q32" t="n">
-        <v>3657.417926554304</v>
+        <v>3683.816671591482</v>
       </c>
       <c r="R32" t="n">
         <v>3683.816671591482</v>
       </c>
       <c r="S32" t="n">
-        <v>3617.010989453112</v>
+        <v>3617.010989453111</v>
       </c>
       <c r="T32" t="n">
         <v>3483.72652757372</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>976.7539532415511</v>
+        <v>976.7539532415509</v>
       </c>
       <c r="C33" t="n">
-        <v>802.3009239604241</v>
+        <v>802.3009239604239</v>
       </c>
       <c r="D33" t="n">
-        <v>653.3665142991729</v>
+        <v>653.3665142991726</v>
       </c>
       <c r="E33" t="n">
-        <v>494.1290592937173</v>
+        <v>494.1290592937172</v>
       </c>
       <c r="F33" t="n">
-        <v>347.5945013206023</v>
+        <v>347.5945013206022</v>
       </c>
       <c r="G33" t="n">
         <v>210.3825245682142</v>
@@ -6777,31 +6777,31 @@
         <v>73.67633343182963</v>
       </c>
       <c r="J33" t="n">
-        <v>213.57949075017</v>
+        <v>88.74936576316523</v>
       </c>
       <c r="K33" t="n">
-        <v>579.3171131690669</v>
+        <v>192.6664035396093</v>
       </c>
       <c r="L33" t="n">
-        <v>1132.500877624054</v>
+        <v>391.0249551141436</v>
       </c>
       <c r="M33" t="n">
-        <v>1368.971447278304</v>
+        <v>1088.543537880894</v>
       </c>
       <c r="N33" t="n">
-        <v>1626.109334186909</v>
+        <v>1820.230375389616</v>
       </c>
       <c r="O33" t="n">
-        <v>1899.91055102039</v>
+        <v>2423.165206832418</v>
       </c>
       <c r="P33" t="n">
-        <v>2366.815841249539</v>
+        <v>2574.792356108029</v>
       </c>
       <c r="Q33" t="n">
-        <v>2626.231893500986</v>
+        <v>2626.231893500985</v>
       </c>
       <c r="R33" t="n">
-        <v>2619.364213622688</v>
+        <v>2619.364213622687</v>
       </c>
       <c r="S33" t="n">
         <v>2474.158816863971</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>569.7500878529248</v>
+        <v>569.7500878529253</v>
       </c>
       <c r="C34" t="n">
-        <v>480.4522928141266</v>
+        <v>480.452292814127</v>
       </c>
       <c r="D34" t="n">
-        <v>409.9740412908995</v>
+        <v>409.9740412908999</v>
       </c>
       <c r="E34" t="n">
-        <v>341.6993355976151</v>
+        <v>341.6993355976155</v>
       </c>
       <c r="F34" t="n">
-        <v>274.4477759888135</v>
+        <v>274.4477759888138</v>
       </c>
       <c r="G34" t="n">
-        <v>185.6716576393846</v>
+        <v>185.671657639385</v>
       </c>
       <c r="H34" t="n">
         <v>112.7654689121255</v>
@@ -6856,13 +6856,13 @@
         <v>73.67633343182963</v>
       </c>
       <c r="J34" t="n">
-        <v>147.5387775206254</v>
+        <v>147.5387775206252</v>
       </c>
       <c r="K34" t="n">
-        <v>348.5418679120227</v>
+        <v>348.5418679120226</v>
       </c>
       <c r="L34" t="n">
-        <v>639.4549246708312</v>
+        <v>639.4549246708311</v>
       </c>
       <c r="M34" t="n">
         <v>952.3281006907841</v>
@@ -6871,7 +6871,7 @@
         <v>1265.05240808124</v>
       </c>
       <c r="O34" t="n">
-        <v>1543.846092172782</v>
+        <v>1543.846092172783</v>
       </c>
       <c r="P34" t="n">
         <v>1770.146828491806</v>
@@ -6889,19 +6889,19 @@
         <v>1555.593698849806</v>
       </c>
       <c r="U34" t="n">
-        <v>1346.090401522016</v>
+        <v>1346.090401522017</v>
       </c>
       <c r="V34" t="n">
-        <v>1171.044301205238</v>
+        <v>1171.044301205239</v>
       </c>
       <c r="W34" t="n">
-        <v>961.2655190573862</v>
+        <v>961.2655190573867</v>
       </c>
       <c r="X34" t="n">
-        <v>812.9143560484773</v>
+        <v>812.9143560484778</v>
       </c>
       <c r="Y34" t="n">
-        <v>671.7601647940559</v>
+        <v>671.7601647940563</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>1207.233734962951</v>
       </c>
       <c r="C35" t="n">
-        <v>1020.260867907514</v>
+        <v>1020.260867907515</v>
       </c>
       <c r="D35" t="n">
-        <v>843.9848191857388</v>
+        <v>843.9848191857393</v>
       </c>
       <c r="E35" t="n">
-        <v>640.1862164724697</v>
+        <v>640.1862164724702</v>
       </c>
       <c r="F35" t="n">
-        <v>411.1899615678373</v>
+        <v>411.1899615678377</v>
       </c>
       <c r="G35" t="n">
         <v>176.5206159745147</v>
@@ -6935,28 +6935,28 @@
         <v>44.678458176067</v>
       </c>
       <c r="J35" t="n">
-        <v>101.5811934196703</v>
+        <v>268.9868424400234</v>
       </c>
       <c r="K35" t="n">
-        <v>237.6021612833853</v>
+        <v>687.3700032885315</v>
       </c>
       <c r="L35" t="n">
-        <v>443.2499615729997</v>
+        <v>893.017803578146</v>
       </c>
       <c r="M35" t="n">
-        <v>996.1458815018289</v>
+        <v>1153.510042933461</v>
       </c>
       <c r="N35" t="n">
-        <v>1549.041801430658</v>
+        <v>1422.831127436629</v>
       </c>
       <c r="O35" t="n">
-        <v>1790.018803232726</v>
+        <v>1663.808129238697</v>
       </c>
       <c r="P35" t="n">
-        <v>1961.186098211859</v>
+        <v>2153.556145307598</v>
       </c>
       <c r="Q35" t="n">
-        <v>2207.524163766172</v>
+        <v>2233.92290880335</v>
       </c>
       <c r="R35" t="n">
         <v>2233.92290880335</v>
@@ -6965,10 +6965,10 @@
         <v>2233.92290880335</v>
       </c>
       <c r="T35" t="n">
-        <v>2202.989708919825</v>
+        <v>2202.989708919826</v>
       </c>
       <c r="U35" t="n">
-        <v>2131.321958452773</v>
+        <v>2131.321958452774</v>
       </c>
       <c r="V35" t="n">
         <v>1982.248720994178</v>
@@ -6977,10 +6977,10 @@
         <v>1811.469715609039</v>
       </c>
       <c r="X35" t="n">
-        <v>1619.993607232934</v>
+        <v>1619.993607232935</v>
       </c>
       <c r="Y35" t="n">
-        <v>1411.843925142097</v>
+        <v>1411.843925142098</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>947.7560779857885</v>
+        <v>591.3126484222139</v>
       </c>
       <c r="C36" t="n">
-        <v>773.3030487046615</v>
+        <v>416.8596191410869</v>
       </c>
       <c r="D36" t="n">
-        <v>624.3686390434102</v>
+        <v>416.8596191410869</v>
       </c>
       <c r="E36" t="n">
-        <v>465.1311840379547</v>
+        <v>257.6221641356314</v>
       </c>
       <c r="F36" t="n">
-        <v>318.5966260648396</v>
+        <v>257.6221641356314</v>
       </c>
       <c r="G36" t="n">
-        <v>181.3846493124516</v>
+        <v>120.4101873832434</v>
       </c>
       <c r="H36" t="n">
         <v>82.68439424776001</v>
@@ -7014,22 +7014,22 @@
         <v>44.678458176067</v>
       </c>
       <c r="J36" t="n">
-        <v>59.75149050740256</v>
+        <v>184.5816154944073</v>
       </c>
       <c r="K36" t="n">
-        <v>163.6685282838466</v>
+        <v>550.3192379133043</v>
       </c>
       <c r="L36" t="n">
-        <v>716.5644482126758</v>
+        <v>820.5020823343741</v>
       </c>
       <c r="M36" t="n">
-        <v>953.0350178669258</v>
+        <v>1056.972651988624</v>
       </c>
       <c r="N36" t="n">
-        <v>1210.172904775531</v>
+        <v>1609.868571917453</v>
       </c>
       <c r="O36" t="n">
-        <v>1507.601566322755</v>
+        <v>1822.879707276293</v>
       </c>
       <c r="P36" t="n">
         <v>1974.506856551903</v>
@@ -7041,25 +7041,25 @@
         <v>2233.92290880335</v>
       </c>
       <c r="S36" t="n">
-        <v>2233.92290880335</v>
+        <v>2088.717512044634</v>
       </c>
       <c r="T36" t="n">
-        <v>2067.106723060647</v>
+        <v>1892.652943382048</v>
       </c>
       <c r="U36" t="n">
-        <v>1838.983029051312</v>
+        <v>1664.529249372713</v>
       </c>
       <c r="V36" t="n">
-        <v>1603.83092081957</v>
+        <v>1429.37714114097</v>
       </c>
       <c r="W36" t="n">
-        <v>1349.593564091368</v>
+        <v>1175.139784412769</v>
       </c>
       <c r="X36" t="n">
-        <v>1323.73171377081</v>
+        <v>967.2882842072358</v>
       </c>
       <c r="Y36" t="n">
-        <v>1115.971415005856</v>
+        <v>759.527985442282</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>368.0075175138811</v>
+        <v>295.3659039706965</v>
       </c>
       <c r="C37" t="n">
-        <v>199.0713345859741</v>
+        <v>295.3659039706965</v>
       </c>
       <c r="D37" t="n">
-        <v>48.95469517363841</v>
+        <v>295.3659039706965</v>
       </c>
       <c r="E37" t="n">
-        <v>48.95469517363841</v>
+        <v>295.3659039706965</v>
       </c>
       <c r="F37" t="n">
-        <v>48.95469517363841</v>
+        <v>295.3659039706965</v>
       </c>
       <c r="G37" t="n">
-        <v>48.95469517363841</v>
+        <v>126.951397732159</v>
       </c>
       <c r="H37" t="n">
-        <v>48.95469517363841</v>
+        <v>126.951397732159</v>
       </c>
       <c r="I37" t="n">
-        <v>48.95469517363841</v>
+        <v>48.9546951736384</v>
       </c>
       <c r="J37" t="n">
         <v>44.678458176067</v>
@@ -7099,13 +7099,13 @@
         <v>167.6279645973488</v>
       </c>
       <c r="L37" t="n">
-        <v>380.487437386042</v>
+        <v>380.4874373860421</v>
       </c>
       <c r="M37" t="n">
-        <v>615.3070294358795</v>
+        <v>615.3070294358796</v>
       </c>
       <c r="N37" t="n">
-        <v>849.9777528562199</v>
+        <v>849.97775285622</v>
       </c>
       <c r="O37" t="n">
         <v>1050.717852977647</v>
@@ -7117,28 +7117,28 @@
         <v>1218.168569202414</v>
       </c>
       <c r="R37" t="n">
-        <v>1218.168569202414</v>
+        <v>1096.338858258427</v>
       </c>
       <c r="S37" t="n">
-        <v>1146.88177707148</v>
+        <v>1074.240163528295</v>
       </c>
       <c r="T37" t="n">
-        <v>1104.064041360248</v>
+        <v>1031.422427817064</v>
       </c>
       <c r="U37" t="n">
-        <v>996.9120060283258</v>
+        <v>742.2807426001661</v>
       </c>
       <c r="V37" t="n">
-        <v>742.2275178224389</v>
+        <v>669.5859042792544</v>
       </c>
       <c r="W37" t="n">
-        <v>452.8103477854783</v>
+        <v>562.1583841272688</v>
       </c>
       <c r="X37" t="n">
-        <v>406.8104467724361</v>
+        <v>334.1688332292515</v>
       </c>
       <c r="Y37" t="n">
-        <v>368.0075175138811</v>
+        <v>295.3659039706965</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1207.233734962952</v>
+        <v>1207.23373496295</v>
       </c>
       <c r="C38" t="n">
-        <v>1020.260867907515</v>
+        <v>1020.260867907514</v>
       </c>
       <c r="D38" t="n">
-        <v>843.9848191857395</v>
+        <v>843.9848191857385</v>
       </c>
       <c r="E38" t="n">
-        <v>640.1862164724704</v>
+        <v>640.1862164724694</v>
       </c>
       <c r="F38" t="n">
-        <v>411.1899615678379</v>
+        <v>411.1899615678369</v>
       </c>
       <c r="G38" t="n">
         <v>176.5206159745147</v>
       </c>
       <c r="H38" t="n">
-        <v>44.67845817606702</v>
+        <v>44.67845817606699</v>
       </c>
       <c r="I38" t="n">
-        <v>44.67845817606702</v>
+        <v>44.67845817606699</v>
       </c>
       <c r="J38" t="n">
-        <v>101.5811934196703</v>
+        <v>268.9868424400234</v>
       </c>
       <c r="K38" t="n">
-        <v>558.5061197288385</v>
+        <v>405.0078103037384</v>
       </c>
       <c r="L38" t="n">
-        <v>764.1539200184529</v>
+        <v>610.6556105933529</v>
       </c>
       <c r="M38" t="n">
-        <v>1024.646159373768</v>
+        <v>871.1478499486676</v>
       </c>
       <c r="N38" t="n">
-        <v>1293.967243876936</v>
+        <v>1140.468934451836</v>
       </c>
       <c r="O38" t="n">
-        <v>1534.944245679004</v>
+        <v>1453.616288485391</v>
       </c>
       <c r="P38" t="n">
-        <v>1943.364304554294</v>
+        <v>1943.364304554292</v>
       </c>
       <c r="Q38" t="n">
-        <v>2233.922908803351</v>
+        <v>2233.922908803349</v>
       </c>
       <c r="R38" t="n">
-        <v>2233.922908803351</v>
+        <v>2233.922908803349</v>
       </c>
       <c r="S38" t="n">
-        <v>2233.922908803351</v>
+        <v>2233.922908803349</v>
       </c>
       <c r="T38" t="n">
-        <v>2202.989708919826</v>
+        <v>2202.989708919825</v>
       </c>
       <c r="U38" t="n">
-        <v>2131.321958452774</v>
+        <v>2131.321958452773</v>
       </c>
       <c r="V38" t="n">
-        <v>1982.248720994179</v>
+        <v>1982.248720994177</v>
       </c>
       <c r="W38" t="n">
-        <v>1811.46971560904</v>
+        <v>1811.469715609038</v>
       </c>
       <c r="X38" t="n">
-        <v>1619.993607232935</v>
+        <v>1619.993607232934</v>
       </c>
       <c r="Y38" t="n">
-        <v>1411.843925142098</v>
+        <v>1411.843925142097</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>673.8379100970158</v>
+        <v>947.7560779857885</v>
       </c>
       <c r="C39" t="n">
-        <v>499.3848808158888</v>
+        <v>773.3030487046615</v>
       </c>
       <c r="D39" t="n">
-        <v>350.4504711546375</v>
+        <v>624.3686390434102</v>
       </c>
       <c r="E39" t="n">
-        <v>191.213016149182</v>
+        <v>465.1311840379547</v>
       </c>
       <c r="F39" t="n">
-        <v>44.67845817606702</v>
+        <v>318.5966260648396</v>
       </c>
       <c r="G39" t="n">
-        <v>44.67845817606702</v>
+        <v>181.3846493124516</v>
       </c>
       <c r="H39" t="n">
-        <v>44.67845817606702</v>
+        <v>82.68439424776</v>
       </c>
       <c r="I39" t="n">
-        <v>44.67845817606702</v>
+        <v>44.67845817606699</v>
       </c>
       <c r="J39" t="n">
-        <v>59.75149050740259</v>
+        <v>184.5816154944073</v>
       </c>
       <c r="K39" t="n">
-        <v>425.4891129262995</v>
+        <v>550.3192379133043</v>
       </c>
       <c r="L39" t="n">
-        <v>978.3850328551289</v>
+        <v>1103.215157842133</v>
       </c>
       <c r="M39" t="n">
-        <v>1214.855602509379</v>
+        <v>1339.685727496383</v>
       </c>
       <c r="N39" t="n">
-        <v>1471.993489417984</v>
+        <v>1596.823614404988</v>
       </c>
       <c r="O39" t="n">
-        <v>1715.578081181246</v>
+        <v>1809.834749763828</v>
       </c>
       <c r="P39" t="n">
-        <v>2182.483371410394</v>
+        <v>1974.506856551903</v>
       </c>
       <c r="Q39" t="n">
-        <v>2233.922908803351</v>
+        <v>2233.922908803349</v>
       </c>
       <c r="R39" t="n">
-        <v>2227.055228925053</v>
+        <v>2227.055228925051</v>
       </c>
       <c r="S39" t="n">
-        <v>2081.849832166336</v>
+        <v>2227.055228925051</v>
       </c>
       <c r="T39" t="n">
-        <v>1885.78526350375</v>
+        <v>2080.881035925554</v>
       </c>
       <c r="U39" t="n">
-        <v>1747.054511047515</v>
+        <v>1852.75734191622</v>
       </c>
       <c r="V39" t="n">
-        <v>1511.902402815772</v>
+        <v>1617.605233684477</v>
       </c>
       <c r="W39" t="n">
-        <v>1257.665046087571</v>
+        <v>1363.367876956275</v>
       </c>
       <c r="X39" t="n">
-        <v>1049.813545882038</v>
+        <v>1155.516376750742</v>
       </c>
       <c r="Y39" t="n">
-        <v>842.0532471170839</v>
+        <v>947.7560779857885</v>
       </c>
     </row>
     <row r="40">
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>196.8677887560315</v>
+        <v>599.1852647996585</v>
       </c>
       <c r="C40" t="n">
-        <v>196.8677887560315</v>
+        <v>599.1852647996585</v>
       </c>
       <c r="D40" t="n">
-        <v>196.8677887560315</v>
+        <v>599.1852647996585</v>
       </c>
       <c r="E40" t="n">
-        <v>48.95469517363843</v>
+        <v>451.2721712172654</v>
       </c>
       <c r="F40" t="n">
-        <v>48.95469517363843</v>
+        <v>304.382223719355</v>
       </c>
       <c r="G40" t="n">
-        <v>48.95469517363843</v>
+        <v>197.2230347924352</v>
       </c>
       <c r="H40" t="n">
-        <v>48.95469517363843</v>
+        <v>44.67845817606699</v>
       </c>
       <c r="I40" t="n">
-        <v>48.95469517363843</v>
+        <v>44.67845817606699</v>
       </c>
       <c r="J40" t="n">
-        <v>44.67845817606702</v>
+        <v>44.67845817606699</v>
       </c>
       <c r="K40" t="n">
         <v>167.6279645973488</v>
       </c>
       <c r="L40" t="n">
-        <v>380.487437386042</v>
+        <v>380.4874373860421</v>
       </c>
       <c r="M40" t="n">
-        <v>615.3070294358795</v>
+        <v>615.3070294358796</v>
       </c>
       <c r="N40" t="n">
-        <v>849.9777528562199</v>
+        <v>849.97775285622</v>
       </c>
       <c r="O40" t="n">
         <v>1050.717852977647</v>
@@ -7357,25 +7357,25 @@
         <v>1218.168569202414</v>
       </c>
       <c r="S40" t="n">
-        <v>1196.069874472282</v>
+        <v>1014.080224587307</v>
       </c>
       <c r="T40" t="n">
-        <v>1153.25213876105</v>
+        <v>971.2624888760755</v>
       </c>
       <c r="U40" t="n">
-        <v>1046.100103429128</v>
+        <v>864.110453544153</v>
       </c>
       <c r="V40" t="n">
-        <v>791.4156152232409</v>
+        <v>791.4156152232412</v>
       </c>
       <c r="W40" t="n">
-        <v>683.9880950712554</v>
+        <v>683.9880950712557</v>
       </c>
       <c r="X40" t="n">
-        <v>455.9985441732381</v>
+        <v>637.9881940582135</v>
       </c>
       <c r="Y40" t="n">
-        <v>378.5162535862712</v>
+        <v>599.1852647996585</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>1207.233734962951</v>
       </c>
       <c r="C41" t="n">
-        <v>1020.260867907514</v>
+        <v>1020.260867907515</v>
       </c>
       <c r="D41" t="n">
-        <v>843.9848191857386</v>
+        <v>843.9848191857394</v>
       </c>
       <c r="E41" t="n">
-        <v>640.1862164724701</v>
+        <v>640.1862164724703</v>
       </c>
       <c r="F41" t="n">
-        <v>411.1899615678375</v>
+        <v>411.1899615678378</v>
       </c>
       <c r="G41" t="n">
         <v>176.5206159745147</v>
@@ -7409,22 +7409,22 @@
         <v>44.678458176067</v>
       </c>
       <c r="J41" t="n">
-        <v>268.9868424400233</v>
+        <v>101.5811934196704</v>
       </c>
       <c r="K41" t="n">
-        <v>477.1781625352261</v>
+        <v>558.5061197288385</v>
       </c>
       <c r="L41" t="n">
-        <v>682.8259628248405</v>
+        <v>764.1539200184529</v>
       </c>
       <c r="M41" t="n">
-        <v>943.3182021801551</v>
+        <v>1024.646159373768</v>
       </c>
       <c r="N41" t="n">
-        <v>1212.639286683323</v>
+        <v>1293.967243876936</v>
       </c>
       <c r="O41" t="n">
-        <v>1453.616288485392</v>
+        <v>1772.19700957516</v>
       </c>
       <c r="P41" t="n">
         <v>1943.364304554293</v>
@@ -7442,7 +7442,7 @@
         <v>2202.989708919825</v>
       </c>
       <c r="U41" t="n">
-        <v>2131.321958452773</v>
+        <v>2131.321958452774</v>
       </c>
       <c r="V41" t="n">
         <v>1982.248720994178</v>
@@ -7451,10 +7451,10 @@
         <v>1811.469715609039</v>
       </c>
       <c r="X41" t="n">
-        <v>1619.993607232934</v>
+        <v>1619.993607232935</v>
       </c>
       <c r="Y41" t="n">
-        <v>1411.843925142097</v>
+        <v>1411.843925142098</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>909.7501419140955</v>
+        <v>947.7560779857885</v>
       </c>
       <c r="C42" t="n">
-        <v>735.2971126329685</v>
+        <v>773.3030487046615</v>
       </c>
       <c r="D42" t="n">
-        <v>586.3627029717172</v>
+        <v>624.3686390434102</v>
       </c>
       <c r="E42" t="n">
-        <v>427.1252479662617</v>
+        <v>465.1311840379547</v>
       </c>
       <c r="F42" t="n">
-        <v>280.5906899931466</v>
+        <v>318.5966260648396</v>
       </c>
       <c r="G42" t="n">
-        <v>143.3787132407586</v>
+        <v>181.3846493124516</v>
       </c>
       <c r="H42" t="n">
-        <v>44.678458176067</v>
+        <v>82.68439424776001</v>
       </c>
       <c r="I42" t="n">
         <v>44.678458176067</v>
@@ -7494,13 +7494,13 @@
         <v>550.3192379133043</v>
       </c>
       <c r="L42" t="n">
-        <v>800.9819744010606</v>
+        <v>736.3710605178669</v>
       </c>
       <c r="M42" t="n">
-        <v>1037.452544055311</v>
+        <v>972.841630172117</v>
       </c>
       <c r="N42" t="n">
-        <v>1294.590430963915</v>
+        <v>1229.979517080722</v>
       </c>
       <c r="O42" t="n">
         <v>1507.601566322755</v>
@@ -7512,28 +7512,28 @@
         <v>2233.92290880335</v>
       </c>
       <c r="R42" t="n">
-        <v>2233.92290880335</v>
+        <v>2227.055228925052</v>
       </c>
       <c r="S42" t="n">
-        <v>2225.16535565154</v>
+        <v>2227.055228925052</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.100786988954</v>
+        <v>2030.990660262466</v>
       </c>
       <c r="U42" t="n">
-        <v>1982.966742864594</v>
+        <v>1802.866966253132</v>
       </c>
       <c r="V42" t="n">
-        <v>1747.814634632852</v>
+        <v>1617.605233684477</v>
       </c>
       <c r="W42" t="n">
-        <v>1493.57727790465</v>
+        <v>1363.367876956275</v>
       </c>
       <c r="X42" t="n">
-        <v>1285.725777699117</v>
+        <v>1155.516376750742</v>
       </c>
       <c r="Y42" t="n">
-        <v>1077.965478934163</v>
+        <v>947.7560779857885</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>599.5264498543935</v>
+        <v>781.1749146846336</v>
       </c>
       <c r="C43" t="n">
-        <v>599.5264498543935</v>
+        <v>781.1749146846336</v>
       </c>
       <c r="D43" t="n">
-        <v>449.4098104420577</v>
+        <v>631.0582752722978</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4098104420577</v>
+        <v>483.1451816899047</v>
       </c>
       <c r="F43" t="n">
-        <v>302.5198629441473</v>
+        <v>336.2552341919943</v>
       </c>
       <c r="G43" t="n">
-        <v>134.1053567056098</v>
+        <v>201.4992717900066</v>
       </c>
       <c r="H43" t="n">
-        <v>48.95469517363841</v>
+        <v>48.9546951736384</v>
       </c>
       <c r="I43" t="n">
-        <v>48.95469517363841</v>
+        <v>48.9546951736384</v>
       </c>
       <c r="J43" t="n">
         <v>44.678458176067</v>
@@ -7573,13 +7573,13 @@
         <v>167.6279645973488</v>
       </c>
       <c r="L43" t="n">
-        <v>380.487437386042</v>
+        <v>380.4874373860421</v>
       </c>
       <c r="M43" t="n">
-        <v>615.3070294358795</v>
+        <v>615.3070294358796</v>
       </c>
       <c r="N43" t="n">
-        <v>849.9777528562199</v>
+        <v>849.97775285622</v>
       </c>
       <c r="O43" t="n">
         <v>1050.717852977647</v>
@@ -7597,22 +7597,22 @@
         <v>1196.069874472282</v>
       </c>
       <c r="T43" t="n">
-        <v>1153.25213876105</v>
+        <v>1153.252138761051</v>
       </c>
       <c r="U43" t="n">
         <v>1046.100103429128</v>
       </c>
       <c r="V43" t="n">
-        <v>973.405265108216</v>
+        <v>973.4052651082162</v>
       </c>
       <c r="W43" t="n">
-        <v>865.9777449562305</v>
+        <v>865.9777449562307</v>
       </c>
       <c r="X43" t="n">
-        <v>819.9778439431882</v>
+        <v>819.9778439431885</v>
       </c>
       <c r="Y43" t="n">
-        <v>781.1749146846332</v>
+        <v>781.1749146846336</v>
       </c>
     </row>
     <row r="44">
@@ -7625,61 +7625,61 @@
         <v>1207.233734962951</v>
       </c>
       <c r="C44" t="n">
-        <v>1020.260867907514</v>
+        <v>1020.260867907515</v>
       </c>
       <c r="D44" t="n">
-        <v>843.9848191857388</v>
+        <v>843.9848191857393</v>
       </c>
       <c r="E44" t="n">
-        <v>640.1862164724701</v>
+        <v>640.1862164724705</v>
       </c>
       <c r="F44" t="n">
-        <v>411.1899615678375</v>
+        <v>411.1899615678378</v>
       </c>
       <c r="G44" t="n">
         <v>176.5206159745147</v>
       </c>
       <c r="H44" t="n">
-        <v>44.678458176067</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="I44" t="n">
-        <v>44.678458176067</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J44" t="n">
-        <v>268.9868424400233</v>
+        <v>268.9868424400235</v>
       </c>
       <c r="K44" t="n">
-        <v>713.5470438047855</v>
+        <v>405.0078103037385</v>
       </c>
       <c r="L44" t="n">
-        <v>919.1948440944</v>
+        <v>610.655610593353</v>
       </c>
       <c r="M44" t="n">
-        <v>1472.090764023229</v>
+        <v>871.1478499486677</v>
       </c>
       <c r="N44" t="n">
-        <v>1741.411848526397</v>
+        <v>1140.468934451836</v>
       </c>
       <c r="O44" t="n">
-        <v>1982.388850328466</v>
+        <v>1453.616288485392</v>
       </c>
       <c r="P44" t="n">
-        <v>2153.556145307599</v>
+        <v>1943.364304554293</v>
       </c>
       <c r="Q44" t="n">
-        <v>2233.92290880335</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="R44" t="n">
-        <v>2233.92290880335</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="S44" t="n">
-        <v>2233.92290880335</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="T44" t="n">
         <v>2202.989708919826</v>
       </c>
       <c r="U44" t="n">
-        <v>2131.321958452773</v>
+        <v>2131.321958452774</v>
       </c>
       <c r="V44" t="n">
         <v>1982.248720994178</v>
@@ -7688,10 +7688,10 @@
         <v>1811.469715609039</v>
       </c>
       <c r="X44" t="n">
-        <v>1619.993607232934</v>
+        <v>1619.993607232935</v>
       </c>
       <c r="Y44" t="n">
-        <v>1411.843925142097</v>
+        <v>1411.843925142098</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>766.4346184288906</v>
+        <v>811.0498868494038</v>
       </c>
       <c r="C45" t="n">
-        <v>591.9815891477637</v>
+        <v>636.5968575682768</v>
       </c>
       <c r="D45" t="n">
-        <v>443.0471794865124</v>
+        <v>487.6624479070255</v>
       </c>
       <c r="E45" t="n">
-        <v>283.8097244810569</v>
+        <v>328.42499290157</v>
       </c>
       <c r="F45" t="n">
-        <v>137.2751665079419</v>
+        <v>181.890434928455</v>
       </c>
       <c r="G45" t="n">
-        <v>44.678458176067</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="H45" t="n">
-        <v>44.678458176067</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="I45" t="n">
-        <v>44.678458176067</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="J45" t="n">
         <v>184.5816154944073</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4986532708514</v>
+        <v>550.3192379133043</v>
       </c>
       <c r="L45" t="n">
-        <v>474.5504758754139</v>
+        <v>1103.215157842134</v>
       </c>
       <c r="M45" t="n">
-        <v>1027.446395804243</v>
+        <v>1339.685727496384</v>
       </c>
       <c r="N45" t="n">
-        <v>1580.342315733072</v>
+        <v>1596.823614404989</v>
       </c>
       <c r="O45" t="n">
-        <v>1793.353451091912</v>
+        <v>1809.834749763828</v>
       </c>
       <c r="P45" t="n">
-        <v>1974.506856551903</v>
+        <v>1974.506856551904</v>
       </c>
       <c r="Q45" t="n">
-        <v>2233.92290880335</v>
+        <v>2233.922908803351</v>
       </c>
       <c r="R45" t="n">
-        <v>2227.055228925052</v>
+        <v>2227.055228925053</v>
       </c>
       <c r="S45" t="n">
-        <v>2081.849832166336</v>
+        <v>2227.055228925053</v>
       </c>
       <c r="T45" t="n">
-        <v>2067.774913388725</v>
+        <v>2112.390181809238</v>
       </c>
       <c r="U45" t="n">
-        <v>1839.65121937939</v>
+        <v>1884.266487799903</v>
       </c>
       <c r="V45" t="n">
-        <v>1604.499111147647</v>
+        <v>1649.11437956816</v>
       </c>
       <c r="W45" t="n">
-        <v>1350.261754419445</v>
+        <v>1394.877022839958</v>
       </c>
       <c r="X45" t="n">
-        <v>1142.410254213913</v>
+        <v>1187.025522634426</v>
       </c>
       <c r="Y45" t="n">
-        <v>934.6499554489587</v>
+        <v>979.2652238694718</v>
       </c>
     </row>
     <row r="46">
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.205965029708</v>
+        <v>364.2591489100863</v>
       </c>
       <c r="C46" t="n">
-        <v>235.205965029708</v>
+        <v>364.2591489100863</v>
       </c>
       <c r="D46" t="n">
-        <v>235.205965029708</v>
+        <v>364.2591489100863</v>
       </c>
       <c r="E46" t="n">
-        <v>235.205965029708</v>
+        <v>364.2591489100863</v>
       </c>
       <c r="F46" t="n">
-        <v>235.205965029708</v>
+        <v>217.369201412176</v>
       </c>
       <c r="G46" t="n">
-        <v>66.7914587911705</v>
+        <v>48.95469517363841</v>
       </c>
       <c r="H46" t="n">
-        <v>66.7914587911705</v>
+        <v>48.95469517363841</v>
       </c>
       <c r="I46" t="n">
         <v>48.95469517363841</v>
       </c>
       <c r="J46" t="n">
-        <v>44.678458176067</v>
+        <v>44.67845817606702</v>
       </c>
       <c r="K46" t="n">
-        <v>167.6279645973488</v>
+        <v>167.6279645973489</v>
       </c>
       <c r="L46" t="n">
-        <v>380.487437386042</v>
+        <v>380.4874373860421</v>
       </c>
       <c r="M46" t="n">
-        <v>615.3070294358795</v>
+        <v>615.3070294358796</v>
       </c>
       <c r="N46" t="n">
-        <v>849.9777528562199</v>
+        <v>849.97775285622</v>
       </c>
       <c r="O46" t="n">
         <v>1050.717852977647</v>
@@ -7834,22 +7834,22 @@
         <v>1196.069874472282</v>
       </c>
       <c r="T46" t="n">
-        <v>1153.25213876105</v>
+        <v>1153.252138761051</v>
       </c>
       <c r="U46" t="n">
-        <v>864.1104535441527</v>
+        <v>993.163637424531</v>
       </c>
       <c r="V46" t="n">
-        <v>609.4259653382659</v>
+        <v>738.4791492186441</v>
       </c>
       <c r="W46" t="n">
-        <v>501.9984451862804</v>
+        <v>631.0516290666586</v>
       </c>
       <c r="X46" t="n">
-        <v>455.9985441732381</v>
+        <v>403.0620781686413</v>
       </c>
       <c r="Y46" t="n">
-        <v>235.205965029708</v>
+        <v>364.2591489100863</v>
       </c>
     </row>
   </sheetData>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>39.05102084553053</v>
+        <v>39.0510208455305</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.15918307349585</v>
+        <v>82.15918307349583</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-3.552713678800501e-13</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>39.05102084553053</v>
+        <v>39.0510208455305</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.1591830734954</v>
+        <v>208.2502184139041</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9182,10 +9182,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="R17" t="n">
-        <v>39.05102084553053</v>
+        <v>39.0510208455305</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>208.2502184139042</v>
       </c>
       <c r="Q18" t="n">
-        <v>208.2502184139046</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>39.05102084553053</v>
+        <v>39.0510208455305</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>208.2502184139043</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>82.15918307349537</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>25.43937969142878</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>41.99235615180777</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>39.05102084553053</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>4.061386626442442</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>234.58741559176</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>207.3557865470357</v>
       </c>
       <c r="P24" t="n">
-        <v>109.8362656889801</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,13 +9875,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>213.8216787381749</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9893,10 +9893,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>160.5089747967477</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>39.0510208455305</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>107.2957578101484</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>61.40412270165854</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10118,22 +10118,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>358.8755095213758</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>32.79414947539749</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>39.0510208455305</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,16 +10194,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>38.38214872838836</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>61.40412270165808</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10355,22 +10355,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>358.8755095213763</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>91.79562256666068</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>39.0510208455305</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>12.43103936360774</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>61.40412270165837</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>285.2143363482758</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>295.3572531045601</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>286.4392277026878</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>167.6477798571327</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>39.0510208455305</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,25 +10662,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.5495932568349</v>
+        <v>84.98083011768409</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>298.7454878992164</v>
       </c>
       <c r="O36" t="n">
-        <v>85.27022847311594</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>72.89934568837029</v>
       </c>
       <c r="P38" t="n">
-        <v>239.6492564607639</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>39.05102084553053</v>
+        <v>39.0510208455305</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.5495932568351</v>
+        <v>370.5495932568347</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,13 +10914,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>30.88227919638672</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>13.1767247600649</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>72.89934568837154</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11072,16 +11072,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>239.649256460763</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>39.05102084553053</v>
+        <v>39.0510208455305</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>65.26354937696343</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>65.26354937696328</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,28 +11297,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>311.6557914151992</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>295.3572531045601</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>72.89934568837148</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>39.05102084553053</v>
+        <v>39.0510208455305</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.5495932568351</v>
       </c>
       <c r="M45" t="n">
-        <v>319.6215659339183</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>298.7454878992165</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>29.82450119634461</v>
+        <v>13.17672476006604</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>239.9879130210783</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>125.4360438395887</v>
       </c>
       <c r="E11" t="n">
-        <v>239.1844414298595</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>264.1301170993091</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>269.7464768811127</v>
       </c>
       <c r="H11" t="n">
-        <v>56.11897817825817</v>
+        <v>167.9475609641863</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.233700684801676</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>68.04769262841242</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>108.3748977061046</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>206.4950400750107</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>174.7571205370872</v>
+        <v>264.1301170993091</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>167.9475609641863</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.233700684801676</v>
+        <v>2.233700684801661</v>
       </c>
       <c r="T14" t="n">
         <v>68.04769262841241</v>
       </c>
       <c r="U14" t="n">
-        <v>108.3748977061046</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>185.0063298277326</v>
       </c>
       <c r="W14" t="n">
-        <v>206.4950400750107</v>
+        <v>99.5282224630412</v>
       </c>
       <c r="X14" t="n">
-        <v>226.9851720360668</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>185.2881130890916</v>
+        <v>84.87989035549319</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23786,16 +23786,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>29.53289369588704</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>18.2020515963639</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>148.1431680258492</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>161.1459090108607</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>114.3846077314866</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>89.10555695396872</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>29.53289369588706</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>71.87714937048155</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>867214.6424024568</v>
+        <v>867214.6424024567</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>867214.6424024567</v>
+        <v>867214.6424024568</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>962277.1727399495</v>
+        <v>962277.1727399494</v>
       </c>
     </row>
     <row r="8">
@@ -26317,43 +26317,43 @@
         <v>471083.894762297</v>
       </c>
       <c r="D2" t="n">
-        <v>471083.894762297</v>
+        <v>471083.8947622971</v>
       </c>
       <c r="E2" t="n">
+        <v>414913.5906353313</v>
+      </c>
+      <c r="F2" t="n">
         <v>414913.5906353312</v>
       </c>
-      <c r="F2" t="n">
-        <v>414913.5906353311</v>
-      </c>
       <c r="G2" t="n">
-        <v>461433.5522898491</v>
+        <v>461433.552289849</v>
       </c>
       <c r="H2" t="n">
-        <v>461433.5522898491</v>
+        <v>461433.552289849</v>
       </c>
       <c r="I2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="J2" t="n">
-        <v>472099.0176719626</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="K2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="L2" t="n">
         <v>472099.0176719625</v>
       </c>
       <c r="M2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="N2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="O2" t="n">
         <v>472099.0176719631</v>
       </c>
       <c r="P2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>784058.3397149073</v>
+        <v>784058.3397149075</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>63073.60320817406</v>
+        <v>63073.60320817404</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>15967.25538750385</v>
       </c>
       <c r="J3" t="n">
-        <v>130412.6889307354</v>
+        <v>130412.6889307353</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63073.60320817408</v>
+        <v>63073.60320817404</v>
       </c>
       <c r="M3" t="n">
-        <v>81062.1995007262</v>
+        <v>81062.19950072623</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26476,22 +26476,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>49278.62047697523</v>
+      </c>
+      <c r="F5" t="n">
         <v>49278.62047697522</v>
       </c>
-      <c r="F5" t="n">
-        <v>49278.62047697521</v>
-      </c>
       <c r="G5" t="n">
-        <v>55906.78891211019</v>
+        <v>55906.7889121102</v>
       </c>
       <c r="H5" t="n">
-        <v>55906.78891211019</v>
+        <v>55906.7889121102</v>
       </c>
       <c r="I5" t="n">
-        <v>59557.53152950496</v>
+        <v>59557.53152950497</v>
       </c>
       <c r="J5" t="n">
-        <v>77861.90965088301</v>
+        <v>77861.909650883</v>
       </c>
       <c r="K5" t="n">
         <v>77861.909650883</v>
@@ -26500,16 +26500,16 @@
         <v>77861.90965088301</v>
       </c>
       <c r="M5" t="n">
+        <v>64342.0470187866</v>
+      </c>
+      <c r="N5" t="n">
         <v>64342.04701878659</v>
       </c>
-      <c r="N5" t="n">
-        <v>64342.04701878661</v>
-      </c>
       <c r="O5" t="n">
-        <v>64342.04701878659</v>
+        <v>64342.0470187866</v>
       </c>
       <c r="P5" t="n">
-        <v>64342.0470187866</v>
+        <v>64342.04701878662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14943.69578666813</v>
+        <v>-14948.10936453624</v>
       </c>
       <c r="C6" t="n">
-        <v>-14943.69578666818</v>
+        <v>-14948.10936453624</v>
       </c>
       <c r="D6" t="n">
-        <v>-14943.69578666813</v>
+        <v>-14948.10936453618</v>
       </c>
       <c r="E6" t="n">
-        <v>-586374.263294064</v>
+        <v>-586622.8955855278</v>
       </c>
       <c r="F6" t="n">
-        <v>197684.0764208432</v>
+        <v>197435.4441293798</v>
       </c>
       <c r="G6" t="n">
-        <v>128324.7664858035</v>
+        <v>128278.3948971855</v>
       </c>
       <c r="H6" t="n">
-        <v>191398.3696939776</v>
+        <v>191351.9981053595</v>
       </c>
       <c r="I6" t="n">
-        <v>173538.5915478517</v>
+        <v>173538.5915478514</v>
       </c>
       <c r="J6" t="n">
-        <v>51915.75226980516</v>
+        <v>51915.75226980541</v>
       </c>
       <c r="K6" t="n">
         <v>182328.4412005408</v>
@@ -26555,13 +26555,13 @@
         <v>107462.5447234267</v>
       </c>
       <c r="N6" t="n">
-        <v>188524.744224153</v>
+        <v>188524.7442241532</v>
       </c>
       <c r="O6" t="n">
         <v>188524.744224153</v>
       </c>
       <c r="P6" t="n">
-        <v>188524.7442241529</v>
+        <v>188524.744224153</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>142.7459286424023</v>
       </c>
       <c r="G2" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="H2" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="I2" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="J2" t="n">
         <v>78.84200401021758</v>
@@ -26713,19 +26713,19 @@
         <v>78.84200401021758</v>
       </c>
       <c r="L2" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="M2" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="N2" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="O2" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="P2" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>699.0700829154819</v>
+        <v>699.070082915482</v>
       </c>
       <c r="F3" t="n">
-        <v>699.0700829154819</v>
+        <v>699.070082915482</v>
       </c>
       <c r="G3" t="n">
-        <v>699.0700829154819</v>
+        <v>699.070082915482</v>
       </c>
       <c r="H3" t="n">
-        <v>699.0700829154819</v>
+        <v>699.070082915482</v>
       </c>
       <c r="I3" t="n">
-        <v>699.0700829154819</v>
+        <v>699.070082915482</v>
       </c>
       <c r="J3" t="n">
-        <v>699.0700829154819</v>
+        <v>699.070082915482</v>
       </c>
       <c r="K3" t="n">
-        <v>699.0700829154819</v>
+        <v>699.070082915482</v>
       </c>
       <c r="L3" t="n">
-        <v>699.0700829154819</v>
+        <v>699.070082915482</v>
       </c>
       <c r="M3" t="n">
-        <v>699.0700829154819</v>
+        <v>699.070082915482</v>
       </c>
       <c r="N3" t="n">
-        <v>699.0700829154819</v>
+        <v>699.070082915482</v>
       </c>
       <c r="O3" t="n">
-        <v>699.0700829154819</v>
+        <v>699.070082915482</v>
       </c>
       <c r="P3" t="n">
-        <v>699.0700829154819</v>
+        <v>699.070082915482</v>
       </c>
     </row>
     <row r="4">
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>362.473440697033</v>
+      </c>
+      <c r="F4" t="n">
         <v>362.4734406970329</v>
       </c>
-      <c r="F4" t="n">
-        <v>362.4734406970328</v>
-      </c>
       <c r="G4" t="n">
-        <v>362.4734406970328</v>
+        <v>362.4734406970329</v>
       </c>
       <c r="H4" t="n">
-        <v>362.4734406970327</v>
+        <v>362.4734406970329</v>
       </c>
       <c r="I4" t="n">
-        <v>422.5185495357625</v>
+        <v>422.5185495357626</v>
       </c>
       <c r="J4" t="n">
-        <v>920.9541678978704</v>
+        <v>920.9541678978703</v>
       </c>
       <c r="K4" t="n">
         <v>920.9541678978703</v>
@@ -26820,16 +26820,16 @@
         <v>920.9541678978704</v>
       </c>
       <c r="M4" t="n">
-        <v>558.4807272008375</v>
+        <v>558.4807272008376</v>
       </c>
       <c r="N4" t="n">
+        <v>558.4807272008374</v>
+      </c>
+      <c r="O4" t="n">
+        <v>558.4807272008376</v>
+      </c>
+      <c r="P4" t="n">
         <v>558.4807272008377</v>
-      </c>
-      <c r="O4" t="n">
-        <v>558.4807272008375</v>
-      </c>
-      <c r="P4" t="n">
-        <v>558.4807272008376</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021755</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021755</v>
       </c>
       <c r="M2" t="n">
-        <v>101.3277493759077</v>
+        <v>101.3277493759078</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>699.0700829154819</v>
+        <v>699.070082915482</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>362.4734406970328</v>
+        <v>362.4734406970329</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>60.04510883872973</v>
       </c>
       <c r="J4" t="n">
-        <v>498.435618362108</v>
+        <v>498.4356183621077</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021755</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>362.4734406970328</v>
+        <v>362.4734406970329</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28172,22 +28172,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>128.5283747319848</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>135.8398569848641</v>
       </c>
       <c r="H12" t="n">
-        <v>97.71325251404465</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>37.62587671097608</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28229,13 +28229,13 @@
         <v>142.7459286424023</v>
       </c>
       <c r="W12" t="n">
-        <v>142.7459286424023</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>142.7459286424023</v>
+        <v>128.027646972141</v>
       </c>
       <c r="Y12" t="n">
-        <v>142.7459286424023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28263,7 +28263,7 @@
         <v>142.7459286424023</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7459286424023</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>117.5402481357105</v>
@@ -28299,7 +28299,7 @@
         <v>142.7459286424023</v>
       </c>
       <c r="T13" t="n">
-        <v>142.7459286424023</v>
+        <v>71.38381831520195</v>
       </c>
       <c r="U13" t="n">
         <v>142.7459286424023</v>
@@ -28308,10 +28308,10 @@
         <v>142.7459286424023</v>
       </c>
       <c r="W13" t="n">
-        <v>71.38381831520212</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="Y13" t="n">
         <v>142.7459286424023</v>
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>90.40177026116581</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>23.40832280055876</v>
+      </c>
+      <c r="E15" t="n">
         <v>142.7459286424023</v>
-      </c>
-      <c r="D15" t="n">
-        <v>142.7459286424023</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>142.7459286424023</v>
       </c>
       <c r="G15" t="n">
-        <v>135.8398569848641</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>97.71325251404465</v>
       </c>
       <c r="I15" t="n">
-        <v>37.62587671097608</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28457,22 +28457,22 @@
         <v>142.7459286424023</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
         <v>142.7459286424023</v>
       </c>
-      <c r="V15" t="n">
+      <c r="Y15" t="n">
         <v>142.7459286424023</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28494,10 +28494,10 @@
         <v>142.7459286424023</v>
       </c>
       <c r="F16" t="n">
-        <v>142.7459286424023</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>142.7459286424023</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.7459286424023</v>
@@ -28506,7 +28506,7 @@
         <v>117.5402481357105</v>
       </c>
       <c r="J16" t="n">
-        <v>4.233474627595697</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28533,13 +28533,13 @@
         <v>120.611413834547</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="U16" t="n">
-        <v>67.15034368760652</v>
+        <v>142.7459286424023</v>
       </c>
       <c r="V16" t="n">
         <v>142.7459286424023</v>
@@ -28551,7 +28551,7 @@
         <v>142.7459286424023</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.7459286424023</v>
+        <v>71.38381831520186</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="C17" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="D17" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="E17" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="F17" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="G17" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="H17" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="I17" t="n">
         <v>102.1305654634748</v>
@@ -28618,19 +28618,19 @@
         <v>210.7936212708147</v>
       </c>
       <c r="U17" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="V17" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="W17" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="X17" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="Y17" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
     </row>
     <row r="18">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28658,10 +28658,10 @@
         <v>135.8398569848641</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.71325251404465</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>37.62587671097607</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28697,13 +28697,13 @@
         <v>194.10392297596</v>
       </c>
       <c r="U18" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="V18" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="W18" t="n">
-        <v>36.93690410435883</v>
+        <v>68.13095852920523</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>73.31734302332914</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7303611761521</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>151.0191308502045</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>117.5402481357105</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4.233474627595683</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>120.611413834547</v>
       </c>
       <c r="S19" t="n">
-        <v>202.0474611689562</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="U19" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="V19" t="n">
-        <v>216.3199581176654</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="C20" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="D20" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="E20" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="F20" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="G20" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="H20" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="I20" t="n">
         <v>102.1305654634748</v>
@@ -28855,19 +28855,19 @@
         <v>210.7936212708147</v>
       </c>
       <c r="U20" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="V20" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="W20" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="X20" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="Y20" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>97.71325251404465</v>
       </c>
       <c r="I21" t="n">
-        <v>37.62587671097608</v>
+        <v>37.62587671097607</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>6.79900307951516</v>
+        <v>6.799003079515145</v>
       </c>
       <c r="S21" t="n">
         <v>143.7533427911297</v>
@@ -28934,16 +28934,16 @@
         <v>194.10392297596</v>
       </c>
       <c r="U21" t="n">
-        <v>77.14690289883288</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="W21" t="n">
-        <v>221.5879326526199</v>
+        <v>61.33195544969013</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -29004,25 +29004,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>91.30271093794209</v>
+        <v>120.611413834547</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>202.0474611689562</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5879326526199</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>221.5879326526199</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="W22" t="n">
-        <v>221.5879326526199</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>211.8197012396783</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="C23" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="D23" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="E23" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="F23" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="G23" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="H23" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="I23" t="n">
         <v>102.1305654634748</v>
@@ -29092,19 +29092,19 @@
         <v>210.7936212708147</v>
       </c>
       <c r="U23" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="V23" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="W23" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="X23" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="Y23" t="n">
-        <v>221.5879326526199</v>
+        <v>221.5879326526198</v>
       </c>
     </row>
     <row r="24">
@@ -29126,7 +29126,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>135.8398569848641</v>
@@ -29135,7 +29135,7 @@
         <v>97.71325251404465</v>
       </c>
       <c r="I24" t="n">
-        <v>37.62587671097608</v>
+        <v>37.62587671097607</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>6.79900307951516</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>143.7533427911297</v>
@@ -29171,10 +29171,10 @@
         <v>194.10392297596</v>
       </c>
       <c r="U24" t="n">
-        <v>221.5879326526199</v>
+        <v>133.2145530597186</v>
       </c>
       <c r="V24" t="n">
-        <v>49.89682972096796</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -29208,16 +29208,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.7303611761521</v>
       </c>
       <c r="H25" t="n">
         <v>151.0191308502045</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>117.5402481357105</v>
       </c>
       <c r="J25" t="n">
-        <v>4.233474627595697</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>120.611413834547</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>96.11767038227809</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5879326526199</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>221.5879326526199</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>221.5879326526199</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>221.5879326526198</v>
       </c>
       <c r="X25" t="n">
-        <v>221.5879326526199</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>109.8076406427175</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -29469,10 +29469,10 @@
         <v>78.84200401021758</v>
       </c>
       <c r="O28" t="n">
+        <v>78.84200401021766</v>
+      </c>
+      <c r="P28" t="n">
         <v>78.84200401021758</v>
-      </c>
-      <c r="P28" t="n">
-        <v>78.84200401021815</v>
       </c>
       <c r="Q28" t="n">
         <v>78.84200401021758</v>
@@ -29700,7 +29700,7 @@
         <v>78.84200401021758</v>
       </c>
       <c r="M31" t="n">
-        <v>78.84200401021789</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="N31" t="n">
         <v>78.84200401021758</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="C32" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="D32" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="E32" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="F32" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="G32" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="H32" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="I32" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="T32" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="U32" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="V32" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="W32" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="X32" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="Y32" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="C34" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="D34" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="E34" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="F34" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="G34" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="H34" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="I34" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="J34" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="K34" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="L34" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="M34" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="N34" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="O34" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="P34" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="R34" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="S34" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="T34" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="U34" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="V34" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="W34" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="X34" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.84200401021759</v>
+        <v>78.84200401021758</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="C35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="D35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="E35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="F35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="G35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="H35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="I35" t="n">
         <v>102.1305654634748</v>
@@ -30037,22 +30037,22 @@
         <v>144.979629327204</v>
       </c>
       <c r="T35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="U35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="V35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="W35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="X35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="Y35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
     </row>
     <row r="36">
@@ -30068,19 +30068,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>60.3647173099161</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30110,13 +30110,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>6.79900307951516</v>
+        <v>6.799003079515145</v>
       </c>
       <c r="S36" t="n">
-        <v>143.7533427911297</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>28.95589909068445</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30128,7 +30128,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>180.1697533861253</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30144,10 +30144,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -30156,13 +30156,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7303611761521</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>151.0191308502045</v>
       </c>
       <c r="I37" t="n">
-        <v>117.5402481357105</v>
+        <v>40.32351260277511</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>120.611413834547</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>131.4735369593314</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="T37" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="U37" t="n">
-        <v>180.1697533861253</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="X37" t="n">
-        <v>180.1697533861253</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="C38" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="D38" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="E38" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="F38" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="G38" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="H38" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="I38" t="n">
         <v>102.1305654634748</v>
@@ -30274,22 +30274,22 @@
         <v>144.979629327204</v>
       </c>
       <c r="T38" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="U38" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="V38" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="W38" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="X38" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="Y38" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -30314,13 +30314,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>135.8398569848641</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>97.71325251404465</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>37.62587671097608</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30350,13 +30350,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>49.39147190645812</v>
       </c>
       <c r="U39" t="n">
-        <v>88.49901213756843</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -30390,19 +30390,19 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7303611761521</v>
+        <v>60.64276413850149</v>
       </c>
       <c r="H40" t="n">
-        <v>151.0191308502045</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>117.5402481357105</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>4.233474627595683</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>120.611413834547</v>
       </c>
       <c r="S40" t="n">
-        <v>180.1697533861253</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="U40" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="W40" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="Y40" t="n">
-        <v>141.8771856709976</v>
+        <v>180.1697533861254</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="C41" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="D41" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="E41" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="F41" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="G41" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="H41" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="I41" t="n">
         <v>102.1305654634748</v>
@@ -30511,22 +30511,22 @@
         <v>144.979629327204</v>
       </c>
       <c r="T41" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="U41" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="V41" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="W41" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="X41" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
     </row>
     <row r="42">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>37.62587671097608</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,19 +30584,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>6.79900307951516</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>135.0833651708377</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>180.1697533861253</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>49.39147190645716</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -30624,16 +30624,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>33.32195839818428</v>
       </c>
       <c r="H43" t="n">
-        <v>66.7199759335528</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>117.5402481357105</v>
@@ -30666,25 +30666,25 @@
         <v>120.611413834547</v>
       </c>
       <c r="S43" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="T43" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="U43" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="V43" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="W43" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="X43" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="Y43" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="C44" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="D44" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="E44" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="F44" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="G44" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="H44" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="I44" t="n">
         <v>102.1305654634748</v>
@@ -30748,22 +30748,22 @@
         <v>144.979629327204</v>
       </c>
       <c r="T44" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="U44" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="V44" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="W44" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="X44" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
     </row>
     <row r="45">
@@ -30788,13 +30788,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>44.16911573630803</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>97.71325251404465</v>
       </c>
       <c r="I45" t="n">
-        <v>37.62587671097608</v>
+        <v>37.62587671097607</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30824,10 +30824,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T45" t="n">
-        <v>180.1697533861253</v>
+        <v>80.58552633130316</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30864,7 +30864,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -30873,7 +30873,7 @@
         <v>151.0191308502045</v>
       </c>
       <c r="I46" t="n">
-        <v>99.88185215435374</v>
+        <v>117.5402481357105</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>120.611413834547</v>
       </c>
       <c r="S46" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="T46" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>127.7626520415742</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="X46" t="n">
-        <v>180.1697533861253</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>180.1697533861254</v>
       </c>
     </row>
   </sheetData>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.810331991620025</v>
+        <v>2.810331991620026</v>
       </c>
       <c r="H11" t="n">
-        <v>28.78131250917859</v>
+        <v>28.7813125091786</v>
       </c>
       <c r="I11" t="n">
-        <v>108.3453241069311</v>
+        <v>108.3453241069312</v>
       </c>
       <c r="J11" t="n">
-        <v>238.5234148737603</v>
+        <v>238.5234148737604</v>
       </c>
       <c r="K11" t="n">
         <v>357.4847680790361</v>
@@ -31780,13 +31780,13 @@
         <v>404.1292533099495</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.4842388600572</v>
+        <v>303.4842388600573</v>
       </c>
       <c r="R11" t="n">
         <v>176.5345169686016</v>
       </c>
       <c r="S11" t="n">
-        <v>64.04044025904139</v>
+        <v>64.0404402590414</v>
       </c>
       <c r="T11" t="n">
         <v>12.30222829331667</v>
@@ -31832,25 +31832,25 @@
         <v>1.503660178346508</v>
       </c>
       <c r="H12" t="n">
-        <v>14.5221917224518</v>
+        <v>14.52219172245181</v>
       </c>
       <c r="I12" t="n">
         <v>51.770756140439</v>
       </c>
       <c r="J12" t="n">
-        <v>142.0629118498339</v>
+        <v>142.062911849834</v>
       </c>
       <c r="K12" t="n">
         <v>242.80814379905</v>
       </c>
       <c r="L12" t="n">
-        <v>326.4855137238767</v>
+        <v>326.4855137238768</v>
       </c>
       <c r="M12" t="n">
         <v>380.9931951889376</v>
       </c>
       <c r="N12" t="n">
-        <v>391.0769513849543</v>
+        <v>391.0769513849544</v>
       </c>
       <c r="O12" t="n">
         <v>357.7590074331712</v>
@@ -31859,19 +31859,19 @@
         <v>287.1331440563609</v>
       </c>
       <c r="Q12" t="n">
-        <v>191.9409027657753</v>
+        <v>191.9409027657754</v>
       </c>
       <c r="R12" t="n">
-        <v>93.35883107312797</v>
+        <v>93.35883107312799</v>
       </c>
       <c r="S12" t="n">
         <v>27.92982831270815</v>
       </c>
       <c r="T12" t="n">
-        <v>6.060805718861581</v>
+        <v>6.060805718861582</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09892501173332295</v>
+        <v>0.09892501173332297</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,22 +31908,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.260618182306606</v>
+        <v>1.260618182306607</v>
       </c>
       <c r="H13" t="n">
         <v>11.20804165723511</v>
       </c>
       <c r="I13" t="n">
-        <v>37.91022679154778</v>
+        <v>37.91022679154779</v>
       </c>
       <c r="J13" t="n">
-        <v>89.12570548907708</v>
+        <v>89.12570548907709</v>
       </c>
       <c r="K13" t="n">
-        <v>146.4609124534402</v>
+        <v>146.4609124534403</v>
       </c>
       <c r="L13" t="n">
-        <v>187.4195432131113</v>
+        <v>187.4195432131114</v>
       </c>
       <c r="M13" t="n">
         <v>197.6076301592074</v>
@@ -31935,22 +31935,22 @@
         <v>178.1826499863921</v>
       </c>
       <c r="P13" t="n">
-        <v>152.4660390673371</v>
+        <v>152.4660390673372</v>
       </c>
       <c r="Q13" t="n">
         <v>105.5595825202378</v>
       </c>
       <c r="R13" t="n">
-        <v>56.68197754262249</v>
+        <v>56.6819775426225</v>
       </c>
       <c r="S13" t="n">
-        <v>21.96913686801603</v>
+        <v>21.96913686801604</v>
       </c>
       <c r="T13" t="n">
         <v>5.386277688037318</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06876099176217862</v>
+        <v>0.06876099176217863</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.810331991620025</v>
+        <v>2.810331991620026</v>
       </c>
       <c r="H14" t="n">
-        <v>28.78131250917859</v>
+        <v>28.7813125091786</v>
       </c>
       <c r="I14" t="n">
-        <v>108.3453241069311</v>
+        <v>108.3453241069312</v>
       </c>
       <c r="J14" t="n">
-        <v>238.5234148737603</v>
+        <v>238.5234148737604</v>
       </c>
       <c r="K14" t="n">
         <v>357.4847680790361</v>
@@ -32017,13 +32017,13 @@
         <v>404.1292533099495</v>
       </c>
       <c r="Q14" t="n">
-        <v>303.4842388600572</v>
+        <v>303.4842388600573</v>
       </c>
       <c r="R14" t="n">
         <v>176.5345169686016</v>
       </c>
       <c r="S14" t="n">
-        <v>64.04044025904139</v>
+        <v>64.0404402590414</v>
       </c>
       <c r="T14" t="n">
         <v>12.30222829331667</v>
@@ -32069,25 +32069,25 @@
         <v>1.503660178346508</v>
       </c>
       <c r="H15" t="n">
-        <v>14.5221917224518</v>
+        <v>14.52219172245181</v>
       </c>
       <c r="I15" t="n">
         <v>51.770756140439</v>
       </c>
       <c r="J15" t="n">
-        <v>142.0629118498339</v>
+        <v>142.062911849834</v>
       </c>
       <c r="K15" t="n">
         <v>242.80814379905</v>
       </c>
       <c r="L15" t="n">
-        <v>326.4855137238767</v>
+        <v>326.4855137238768</v>
       </c>
       <c r="M15" t="n">
         <v>380.9931951889376</v>
       </c>
       <c r="N15" t="n">
-        <v>391.0769513849543</v>
+        <v>391.0769513849544</v>
       </c>
       <c r="O15" t="n">
         <v>357.7590074331712</v>
@@ -32096,19 +32096,19 @@
         <v>287.1331440563609</v>
       </c>
       <c r="Q15" t="n">
-        <v>191.9409027657753</v>
+        <v>191.9409027657754</v>
       </c>
       <c r="R15" t="n">
-        <v>93.35883107312797</v>
+        <v>93.35883107312799</v>
       </c>
       <c r="S15" t="n">
         <v>27.92982831270815</v>
       </c>
       <c r="T15" t="n">
-        <v>6.060805718861581</v>
+        <v>6.060805718861582</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09892501173332295</v>
+        <v>0.09892501173332297</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,22 +32145,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.260618182306606</v>
+        <v>1.260618182306607</v>
       </c>
       <c r="H16" t="n">
         <v>11.20804165723511</v>
       </c>
       <c r="I16" t="n">
-        <v>37.91022679154778</v>
+        <v>37.91022679154779</v>
       </c>
       <c r="J16" t="n">
-        <v>89.12570548907708</v>
+        <v>89.12570548907709</v>
       </c>
       <c r="K16" t="n">
-        <v>146.4609124534402</v>
+        <v>146.4609124534403</v>
       </c>
       <c r="L16" t="n">
-        <v>187.4195432131113</v>
+        <v>187.4195432131114</v>
       </c>
       <c r="M16" t="n">
         <v>197.6076301592074</v>
@@ -32172,22 +32172,22 @@
         <v>178.1826499863921</v>
       </c>
       <c r="P16" t="n">
-        <v>152.4660390673371</v>
+        <v>152.4660390673372</v>
       </c>
       <c r="Q16" t="n">
         <v>105.5595825202378</v>
       </c>
       <c r="R16" t="n">
-        <v>56.68197754262249</v>
+        <v>56.6819775426225</v>
       </c>
       <c r="S16" t="n">
-        <v>21.96913686801603</v>
+        <v>21.96913686801604</v>
       </c>
       <c r="T16" t="n">
         <v>5.386277688037318</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06876099176217862</v>
+        <v>0.06876099176217863</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.810331991620025</v>
+        <v>2.810331991620026</v>
       </c>
       <c r="H17" t="n">
-        <v>28.78131250917859</v>
+        <v>28.7813125091786</v>
       </c>
       <c r="I17" t="n">
-        <v>108.3453241069311</v>
+        <v>108.3453241069312</v>
       </c>
       <c r="J17" t="n">
-        <v>238.5234148737603</v>
+        <v>238.5234148737604</v>
       </c>
       <c r="K17" t="n">
         <v>357.4847680790361</v>
@@ -32254,13 +32254,13 @@
         <v>404.1292533099495</v>
       </c>
       <c r="Q17" t="n">
-        <v>303.4842388600572</v>
+        <v>303.4842388600573</v>
       </c>
       <c r="R17" t="n">
         <v>176.5345169686016</v>
       </c>
       <c r="S17" t="n">
-        <v>64.04044025904139</v>
+        <v>64.0404402590414</v>
       </c>
       <c r="T17" t="n">
         <v>12.30222829331667</v>
@@ -32306,25 +32306,25 @@
         <v>1.503660178346508</v>
       </c>
       <c r="H18" t="n">
-        <v>14.5221917224518</v>
+        <v>14.52219172245181</v>
       </c>
       <c r="I18" t="n">
         <v>51.770756140439</v>
       </c>
       <c r="J18" t="n">
-        <v>142.0629118498339</v>
+        <v>142.062911849834</v>
       </c>
       <c r="K18" t="n">
         <v>242.80814379905</v>
       </c>
       <c r="L18" t="n">
-        <v>326.4855137238767</v>
+        <v>326.4855137238768</v>
       </c>
       <c r="M18" t="n">
         <v>380.9931951889376</v>
       </c>
       <c r="N18" t="n">
-        <v>391.0769513849543</v>
+        <v>391.0769513849544</v>
       </c>
       <c r="O18" t="n">
         <v>357.7590074331712</v>
@@ -32333,19 +32333,19 @@
         <v>287.1331440563609</v>
       </c>
       <c r="Q18" t="n">
-        <v>191.9409027657753</v>
+        <v>191.9409027657754</v>
       </c>
       <c r="R18" t="n">
-        <v>93.35883107312797</v>
+        <v>93.35883107312799</v>
       </c>
       <c r="S18" t="n">
         <v>27.92982831270815</v>
       </c>
       <c r="T18" t="n">
-        <v>6.060805718861581</v>
+        <v>6.060805718861582</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09892501173332295</v>
+        <v>0.09892501173332297</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,22 +32382,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.260618182306606</v>
+        <v>1.260618182306607</v>
       </c>
       <c r="H19" t="n">
         <v>11.20804165723511</v>
       </c>
       <c r="I19" t="n">
-        <v>37.91022679154778</v>
+        <v>37.91022679154779</v>
       </c>
       <c r="J19" t="n">
-        <v>89.12570548907708</v>
+        <v>89.12570548907709</v>
       </c>
       <c r="K19" t="n">
-        <v>146.4609124534402</v>
+        <v>146.4609124534403</v>
       </c>
       <c r="L19" t="n">
-        <v>187.4195432131113</v>
+        <v>187.4195432131114</v>
       </c>
       <c r="M19" t="n">
         <v>197.6076301592074</v>
@@ -32409,22 +32409,22 @@
         <v>178.1826499863921</v>
       </c>
       <c r="P19" t="n">
-        <v>152.4660390673371</v>
+        <v>152.4660390673372</v>
       </c>
       <c r="Q19" t="n">
         <v>105.5595825202378</v>
       </c>
       <c r="R19" t="n">
-        <v>56.68197754262249</v>
+        <v>56.6819775426225</v>
       </c>
       <c r="S19" t="n">
-        <v>21.96913686801603</v>
+        <v>21.96913686801604</v>
       </c>
       <c r="T19" t="n">
         <v>5.386277688037318</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06876099176217862</v>
+        <v>0.06876099176217863</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.810331991620025</v>
+        <v>2.810331991620026</v>
       </c>
       <c r="H20" t="n">
-        <v>28.78131250917859</v>
+        <v>28.7813125091786</v>
       </c>
       <c r="I20" t="n">
-        <v>108.3453241069311</v>
+        <v>108.3453241069312</v>
       </c>
       <c r="J20" t="n">
-        <v>238.5234148737603</v>
+        <v>238.5234148737604</v>
       </c>
       <c r="K20" t="n">
         <v>357.4847680790361</v>
@@ -32491,13 +32491,13 @@
         <v>404.1292533099495</v>
       </c>
       <c r="Q20" t="n">
-        <v>303.4842388600572</v>
+        <v>303.4842388600573</v>
       </c>
       <c r="R20" t="n">
         <v>176.5345169686016</v>
       </c>
       <c r="S20" t="n">
-        <v>64.04044025904139</v>
+        <v>64.0404402590414</v>
       </c>
       <c r="T20" t="n">
         <v>12.30222829331667</v>
@@ -32543,25 +32543,25 @@
         <v>1.503660178346508</v>
       </c>
       <c r="H21" t="n">
-        <v>14.5221917224518</v>
+        <v>14.52219172245181</v>
       </c>
       <c r="I21" t="n">
         <v>51.770756140439</v>
       </c>
       <c r="J21" t="n">
-        <v>142.0629118498339</v>
+        <v>142.062911849834</v>
       </c>
       <c r="K21" t="n">
         <v>242.80814379905</v>
       </c>
       <c r="L21" t="n">
-        <v>326.4855137238767</v>
+        <v>326.4855137238768</v>
       </c>
       <c r="M21" t="n">
         <v>380.9931951889376</v>
       </c>
       <c r="N21" t="n">
-        <v>391.0769513849543</v>
+        <v>391.0769513849544</v>
       </c>
       <c r="O21" t="n">
         <v>357.7590074331712</v>
@@ -32570,19 +32570,19 @@
         <v>287.1331440563609</v>
       </c>
       <c r="Q21" t="n">
-        <v>191.9409027657753</v>
+        <v>191.9409027657754</v>
       </c>
       <c r="R21" t="n">
-        <v>93.35883107312797</v>
+        <v>93.35883107312799</v>
       </c>
       <c r="S21" t="n">
         <v>27.92982831270815</v>
       </c>
       <c r="T21" t="n">
-        <v>6.060805718861581</v>
+        <v>6.060805718861582</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09892501173332295</v>
+        <v>0.09892501173332297</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,22 +32619,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.260618182306606</v>
+        <v>1.260618182306607</v>
       </c>
       <c r="H22" t="n">
         <v>11.20804165723511</v>
       </c>
       <c r="I22" t="n">
-        <v>37.91022679154778</v>
+        <v>37.91022679154779</v>
       </c>
       <c r="J22" t="n">
-        <v>89.12570548907708</v>
+        <v>89.12570548907709</v>
       </c>
       <c r="K22" t="n">
-        <v>146.4609124534402</v>
+        <v>146.4609124534403</v>
       </c>
       <c r="L22" t="n">
-        <v>187.4195432131113</v>
+        <v>187.4195432131114</v>
       </c>
       <c r="M22" t="n">
         <v>197.6076301592074</v>
@@ -32646,22 +32646,22 @@
         <v>178.1826499863921</v>
       </c>
       <c r="P22" t="n">
-        <v>152.4660390673371</v>
+        <v>152.4660390673372</v>
       </c>
       <c r="Q22" t="n">
         <v>105.5595825202378</v>
       </c>
       <c r="R22" t="n">
-        <v>56.68197754262249</v>
+        <v>56.6819775426225</v>
       </c>
       <c r="S22" t="n">
-        <v>21.96913686801603</v>
+        <v>21.96913686801604</v>
       </c>
       <c r="T22" t="n">
         <v>5.386277688037318</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06876099176217862</v>
+        <v>0.06876099176217863</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.810331991620025</v>
+        <v>2.810331991620026</v>
       </c>
       <c r="H23" t="n">
-        <v>28.78131250917859</v>
+        <v>28.7813125091786</v>
       </c>
       <c r="I23" t="n">
-        <v>108.3453241069311</v>
+        <v>108.3453241069312</v>
       </c>
       <c r="J23" t="n">
-        <v>238.5234148737603</v>
+        <v>238.5234148737604</v>
       </c>
       <c r="K23" t="n">
         <v>357.4847680790361</v>
@@ -32728,13 +32728,13 @@
         <v>404.1292533099495</v>
       </c>
       <c r="Q23" t="n">
-        <v>303.4842388600572</v>
+        <v>303.4842388600573</v>
       </c>
       <c r="R23" t="n">
         <v>176.5345169686016</v>
       </c>
       <c r="S23" t="n">
-        <v>64.04044025904139</v>
+        <v>64.0404402590414</v>
       </c>
       <c r="T23" t="n">
         <v>12.30222829331667</v>
@@ -32780,25 +32780,25 @@
         <v>1.503660178346508</v>
       </c>
       <c r="H24" t="n">
-        <v>14.5221917224518</v>
+        <v>14.52219172245181</v>
       </c>
       <c r="I24" t="n">
         <v>51.770756140439</v>
       </c>
       <c r="J24" t="n">
-        <v>142.0629118498339</v>
+        <v>142.062911849834</v>
       </c>
       <c r="K24" t="n">
         <v>242.80814379905</v>
       </c>
       <c r="L24" t="n">
-        <v>326.4855137238767</v>
+        <v>326.4855137238768</v>
       </c>
       <c r="M24" t="n">
         <v>380.9931951889376</v>
       </c>
       <c r="N24" t="n">
-        <v>391.0769513849543</v>
+        <v>391.0769513849544</v>
       </c>
       <c r="O24" t="n">
         <v>357.7590074331712</v>
@@ -32807,19 +32807,19 @@
         <v>287.1331440563609</v>
       </c>
       <c r="Q24" t="n">
-        <v>191.9409027657753</v>
+        <v>191.9409027657754</v>
       </c>
       <c r="R24" t="n">
-        <v>93.35883107312797</v>
+        <v>93.35883107312799</v>
       </c>
       <c r="S24" t="n">
         <v>27.92982831270815</v>
       </c>
       <c r="T24" t="n">
-        <v>6.060805718861581</v>
+        <v>6.060805718861582</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09892501173332295</v>
+        <v>0.09892501173332297</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,22 +32856,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.260618182306606</v>
+        <v>1.260618182306607</v>
       </c>
       <c r="H25" t="n">
         <v>11.20804165723511</v>
       </c>
       <c r="I25" t="n">
-        <v>37.91022679154778</v>
+        <v>37.91022679154779</v>
       </c>
       <c r="J25" t="n">
-        <v>89.12570548907708</v>
+        <v>89.12570548907709</v>
       </c>
       <c r="K25" t="n">
-        <v>146.4609124534402</v>
+        <v>146.4609124534403</v>
       </c>
       <c r="L25" t="n">
-        <v>187.4195432131113</v>
+        <v>187.4195432131114</v>
       </c>
       <c r="M25" t="n">
         <v>197.6076301592074</v>
@@ -32883,22 +32883,22 @@
         <v>178.1826499863921</v>
       </c>
       <c r="P25" t="n">
-        <v>152.4660390673371</v>
+        <v>152.4660390673372</v>
       </c>
       <c r="Q25" t="n">
         <v>105.5595825202378</v>
       </c>
       <c r="R25" t="n">
-        <v>56.68197754262249</v>
+        <v>56.6819775426225</v>
       </c>
       <c r="S25" t="n">
-        <v>21.96913686801603</v>
+        <v>21.96913686801604</v>
       </c>
       <c r="T25" t="n">
         <v>5.386277688037318</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06876099176217862</v>
+        <v>0.06876099176217863</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.810331991620025</v>
+        <v>2.810331991620026</v>
       </c>
       <c r="H26" t="n">
-        <v>28.78131250917859</v>
+        <v>28.7813125091786</v>
       </c>
       <c r="I26" t="n">
-        <v>108.3453241069311</v>
+        <v>108.3453241069312</v>
       </c>
       <c r="J26" t="n">
-        <v>238.5234148737603</v>
+        <v>238.5234148737604</v>
       </c>
       <c r="K26" t="n">
         <v>357.4847680790361</v>
@@ -32965,13 +32965,13 @@
         <v>404.1292533099495</v>
       </c>
       <c r="Q26" t="n">
-        <v>303.4842388600572</v>
+        <v>303.4842388600573</v>
       </c>
       <c r="R26" t="n">
         <v>176.5345169686016</v>
       </c>
       <c r="S26" t="n">
-        <v>64.04044025904139</v>
+        <v>64.0404402590414</v>
       </c>
       <c r="T26" t="n">
         <v>12.30222829331667</v>
@@ -33017,25 +33017,25 @@
         <v>1.503660178346508</v>
       </c>
       <c r="H27" t="n">
-        <v>14.5221917224518</v>
+        <v>14.52219172245181</v>
       </c>
       <c r="I27" t="n">
         <v>51.770756140439</v>
       </c>
       <c r="J27" t="n">
-        <v>142.0629118498339</v>
+        <v>142.062911849834</v>
       </c>
       <c r="K27" t="n">
         <v>242.80814379905</v>
       </c>
       <c r="L27" t="n">
-        <v>326.4855137238767</v>
+        <v>326.4855137238768</v>
       </c>
       <c r="M27" t="n">
         <v>380.9931951889376</v>
       </c>
       <c r="N27" t="n">
-        <v>391.0769513849543</v>
+        <v>391.0769513849544</v>
       </c>
       <c r="O27" t="n">
         <v>357.7590074331712</v>
@@ -33044,19 +33044,19 @@
         <v>287.1331440563609</v>
       </c>
       <c r="Q27" t="n">
-        <v>191.9409027657753</v>
+        <v>191.9409027657754</v>
       </c>
       <c r="R27" t="n">
-        <v>93.35883107312797</v>
+        <v>93.35883107312799</v>
       </c>
       <c r="S27" t="n">
         <v>27.92982831270815</v>
       </c>
       <c r="T27" t="n">
-        <v>6.060805718861581</v>
+        <v>6.060805718861582</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09892501173332295</v>
+        <v>0.09892501173332297</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,22 +33093,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.260618182306606</v>
+        <v>1.260618182306607</v>
       </c>
       <c r="H28" t="n">
         <v>11.20804165723511</v>
       </c>
       <c r="I28" t="n">
-        <v>37.91022679154778</v>
+        <v>37.91022679154779</v>
       </c>
       <c r="J28" t="n">
-        <v>89.12570548907708</v>
+        <v>89.12570548907709</v>
       </c>
       <c r="K28" t="n">
-        <v>146.4609124534402</v>
+        <v>146.4609124534403</v>
       </c>
       <c r="L28" t="n">
-        <v>187.4195432131113</v>
+        <v>187.4195432131114</v>
       </c>
       <c r="M28" t="n">
         <v>197.6076301592074</v>
@@ -33120,22 +33120,22 @@
         <v>178.1826499863921</v>
       </c>
       <c r="P28" t="n">
-        <v>152.4660390673371</v>
+        <v>152.4660390673372</v>
       </c>
       <c r="Q28" t="n">
         <v>105.5595825202378</v>
       </c>
       <c r="R28" t="n">
-        <v>56.68197754262249</v>
+        <v>56.6819775426225</v>
       </c>
       <c r="S28" t="n">
-        <v>21.96913686801603</v>
+        <v>21.96913686801604</v>
       </c>
       <c r="T28" t="n">
         <v>5.386277688037318</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06876099176217862</v>
+        <v>0.06876099176217863</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.810331991620025</v>
+        <v>2.810331991620026</v>
       </c>
       <c r="H29" t="n">
-        <v>28.78131250917859</v>
+        <v>28.7813125091786</v>
       </c>
       <c r="I29" t="n">
-        <v>108.3453241069311</v>
+        <v>108.3453241069312</v>
       </c>
       <c r="J29" t="n">
-        <v>238.5234148737603</v>
+        <v>238.5234148737604</v>
       </c>
       <c r="K29" t="n">
         <v>357.4847680790361</v>
@@ -33202,13 +33202,13 @@
         <v>404.1292533099495</v>
       </c>
       <c r="Q29" t="n">
-        <v>303.4842388600572</v>
+        <v>303.4842388600573</v>
       </c>
       <c r="R29" t="n">
         <v>176.5345169686016</v>
       </c>
       <c r="S29" t="n">
-        <v>64.04044025904139</v>
+        <v>64.0404402590414</v>
       </c>
       <c r="T29" t="n">
         <v>12.30222829331667</v>
@@ -33254,25 +33254,25 @@
         <v>1.503660178346508</v>
       </c>
       <c r="H30" t="n">
-        <v>14.5221917224518</v>
+        <v>14.52219172245181</v>
       </c>
       <c r="I30" t="n">
         <v>51.770756140439</v>
       </c>
       <c r="J30" t="n">
-        <v>142.0629118498339</v>
+        <v>142.062911849834</v>
       </c>
       <c r="K30" t="n">
         <v>242.80814379905</v>
       </c>
       <c r="L30" t="n">
-        <v>326.4855137238767</v>
+        <v>326.4855137238768</v>
       </c>
       <c r="M30" t="n">
         <v>380.9931951889376</v>
       </c>
       <c r="N30" t="n">
-        <v>391.0769513849543</v>
+        <v>391.0769513849544</v>
       </c>
       <c r="O30" t="n">
         <v>357.7590074331712</v>
@@ -33281,19 +33281,19 @@
         <v>287.1331440563609</v>
       </c>
       <c r="Q30" t="n">
-        <v>191.9409027657753</v>
+        <v>191.9409027657754</v>
       </c>
       <c r="R30" t="n">
-        <v>93.35883107312797</v>
+        <v>93.35883107312799</v>
       </c>
       <c r="S30" t="n">
         <v>27.92982831270815</v>
       </c>
       <c r="T30" t="n">
-        <v>6.060805718861581</v>
+        <v>6.060805718861582</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09892501173332295</v>
+        <v>0.09892501173332297</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,22 +33330,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.260618182306606</v>
+        <v>1.260618182306607</v>
       </c>
       <c r="H31" t="n">
         <v>11.20804165723511</v>
       </c>
       <c r="I31" t="n">
-        <v>37.91022679154778</v>
+        <v>37.91022679154779</v>
       </c>
       <c r="J31" t="n">
-        <v>89.12570548907708</v>
+        <v>89.12570548907709</v>
       </c>
       <c r="K31" t="n">
-        <v>146.4609124534402</v>
+        <v>146.4609124534403</v>
       </c>
       <c r="L31" t="n">
-        <v>187.4195432131113</v>
+        <v>187.4195432131114</v>
       </c>
       <c r="M31" t="n">
         <v>197.6076301592074</v>
@@ -33357,22 +33357,22 @@
         <v>178.1826499863921</v>
       </c>
       <c r="P31" t="n">
-        <v>152.4660390673371</v>
+        <v>152.4660390673372</v>
       </c>
       <c r="Q31" t="n">
         <v>105.5595825202378</v>
       </c>
       <c r="R31" t="n">
-        <v>56.68197754262249</v>
+        <v>56.6819775426225</v>
       </c>
       <c r="S31" t="n">
-        <v>21.96913686801603</v>
+        <v>21.96913686801604</v>
       </c>
       <c r="T31" t="n">
         <v>5.386277688037318</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06876099176217862</v>
+        <v>0.06876099176217863</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.810331991620025</v>
+        <v>2.810331991620026</v>
       </c>
       <c r="H32" t="n">
-        <v>28.78131250917859</v>
+        <v>28.7813125091786</v>
       </c>
       <c r="I32" t="n">
-        <v>108.3453241069311</v>
+        <v>108.3453241069312</v>
       </c>
       <c r="J32" t="n">
-        <v>238.5234148737603</v>
+        <v>238.5234148737604</v>
       </c>
       <c r="K32" t="n">
         <v>357.4847680790361</v>
@@ -33439,13 +33439,13 @@
         <v>404.1292533099495</v>
       </c>
       <c r="Q32" t="n">
-        <v>303.4842388600572</v>
+        <v>303.4842388600573</v>
       </c>
       <c r="R32" t="n">
         <v>176.5345169686016</v>
       </c>
       <c r="S32" t="n">
-        <v>64.04044025904139</v>
+        <v>64.0404402590414</v>
       </c>
       <c r="T32" t="n">
         <v>12.30222829331667</v>
@@ -33491,25 +33491,25 @@
         <v>1.503660178346508</v>
       </c>
       <c r="H33" t="n">
-        <v>14.5221917224518</v>
+        <v>14.52219172245181</v>
       </c>
       <c r="I33" t="n">
         <v>51.770756140439</v>
       </c>
       <c r="J33" t="n">
-        <v>142.0629118498339</v>
+        <v>142.062911849834</v>
       </c>
       <c r="K33" t="n">
         <v>242.80814379905</v>
       </c>
       <c r="L33" t="n">
-        <v>326.4855137238767</v>
+        <v>326.4855137238768</v>
       </c>
       <c r="M33" t="n">
         <v>380.9931951889376</v>
       </c>
       <c r="N33" t="n">
-        <v>391.0769513849543</v>
+        <v>391.0769513849544</v>
       </c>
       <c r="O33" t="n">
         <v>357.7590074331712</v>
@@ -33518,19 +33518,19 @@
         <v>287.1331440563609</v>
       </c>
       <c r="Q33" t="n">
-        <v>191.9409027657753</v>
+        <v>191.9409027657754</v>
       </c>
       <c r="R33" t="n">
-        <v>93.35883107312797</v>
+        <v>93.35883107312799</v>
       </c>
       <c r="S33" t="n">
         <v>27.92982831270815</v>
       </c>
       <c r="T33" t="n">
-        <v>6.060805718861581</v>
+        <v>6.060805718861582</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09892501173332295</v>
+        <v>0.09892501173332297</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,22 +33567,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.260618182306606</v>
+        <v>1.260618182306607</v>
       </c>
       <c r="H34" t="n">
         <v>11.20804165723511</v>
       </c>
       <c r="I34" t="n">
-        <v>37.91022679154778</v>
+        <v>37.91022679154779</v>
       </c>
       <c r="J34" t="n">
-        <v>89.12570548907708</v>
+        <v>89.12570548907709</v>
       </c>
       <c r="K34" t="n">
-        <v>146.4609124534402</v>
+        <v>146.4609124534403</v>
       </c>
       <c r="L34" t="n">
-        <v>187.4195432131113</v>
+        <v>187.4195432131114</v>
       </c>
       <c r="M34" t="n">
         <v>197.6076301592074</v>
@@ -33594,22 +33594,22 @@
         <v>178.1826499863921</v>
       </c>
       <c r="P34" t="n">
-        <v>152.4660390673371</v>
+        <v>152.4660390673372</v>
       </c>
       <c r="Q34" t="n">
         <v>105.5595825202378</v>
       </c>
       <c r="R34" t="n">
-        <v>56.68197754262249</v>
+        <v>56.6819775426225</v>
       </c>
       <c r="S34" t="n">
-        <v>21.96913686801603</v>
+        <v>21.96913686801604</v>
       </c>
       <c r="T34" t="n">
         <v>5.386277688037318</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06876099176217862</v>
+        <v>0.06876099176217863</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.810331991620025</v>
+        <v>2.810331991620026</v>
       </c>
       <c r="H35" t="n">
-        <v>28.78131250917859</v>
+        <v>28.7813125091786</v>
       </c>
       <c r="I35" t="n">
-        <v>108.3453241069311</v>
+        <v>108.3453241069312</v>
       </c>
       <c r="J35" t="n">
-        <v>238.5234148737603</v>
+        <v>238.5234148737604</v>
       </c>
       <c r="K35" t="n">
         <v>357.4847680790361</v>
@@ -33676,13 +33676,13 @@
         <v>404.1292533099495</v>
       </c>
       <c r="Q35" t="n">
-        <v>303.4842388600572</v>
+        <v>303.4842388600573</v>
       </c>
       <c r="R35" t="n">
         <v>176.5345169686016</v>
       </c>
       <c r="S35" t="n">
-        <v>64.04044025904139</v>
+        <v>64.0404402590414</v>
       </c>
       <c r="T35" t="n">
         <v>12.30222829331667</v>
@@ -33728,25 +33728,25 @@
         <v>1.503660178346508</v>
       </c>
       <c r="H36" t="n">
-        <v>14.5221917224518</v>
+        <v>14.52219172245181</v>
       </c>
       <c r="I36" t="n">
         <v>51.770756140439</v>
       </c>
       <c r="J36" t="n">
-        <v>142.0629118498339</v>
+        <v>142.062911849834</v>
       </c>
       <c r="K36" t="n">
         <v>242.80814379905</v>
       </c>
       <c r="L36" t="n">
-        <v>326.4855137238767</v>
+        <v>326.4855137238768</v>
       </c>
       <c r="M36" t="n">
         <v>380.9931951889376</v>
       </c>
       <c r="N36" t="n">
-        <v>391.0769513849543</v>
+        <v>391.0769513849544</v>
       </c>
       <c r="O36" t="n">
         <v>357.7590074331712</v>
@@ -33755,19 +33755,19 @@
         <v>287.1331440563609</v>
       </c>
       <c r="Q36" t="n">
-        <v>191.9409027657753</v>
+        <v>191.9409027657754</v>
       </c>
       <c r="R36" t="n">
-        <v>93.35883107312797</v>
+        <v>93.35883107312799</v>
       </c>
       <c r="S36" t="n">
         <v>27.92982831270815</v>
       </c>
       <c r="T36" t="n">
-        <v>6.060805718861581</v>
+        <v>6.060805718861582</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09892501173332295</v>
+        <v>0.09892501173332297</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,22 +33804,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.260618182306606</v>
+        <v>1.260618182306607</v>
       </c>
       <c r="H37" t="n">
         <v>11.20804165723511</v>
       </c>
       <c r="I37" t="n">
-        <v>37.91022679154778</v>
+        <v>37.91022679154779</v>
       </c>
       <c r="J37" t="n">
-        <v>89.12570548907708</v>
+        <v>89.12570548907709</v>
       </c>
       <c r="K37" t="n">
-        <v>146.4609124534402</v>
+        <v>146.4609124534403</v>
       </c>
       <c r="L37" t="n">
-        <v>187.4195432131113</v>
+        <v>187.4195432131114</v>
       </c>
       <c r="M37" t="n">
         <v>197.6076301592074</v>
@@ -33831,22 +33831,22 @@
         <v>178.1826499863921</v>
       </c>
       <c r="P37" t="n">
-        <v>152.4660390673371</v>
+        <v>152.4660390673372</v>
       </c>
       <c r="Q37" t="n">
         <v>105.5595825202378</v>
       </c>
       <c r="R37" t="n">
-        <v>56.68197754262249</v>
+        <v>56.6819775426225</v>
       </c>
       <c r="S37" t="n">
-        <v>21.96913686801603</v>
+        <v>21.96913686801604</v>
       </c>
       <c r="T37" t="n">
         <v>5.386277688037318</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06876099176217862</v>
+        <v>0.06876099176217863</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.810331991620025</v>
+        <v>2.810331991620026</v>
       </c>
       <c r="H38" t="n">
-        <v>28.78131250917859</v>
+        <v>28.7813125091786</v>
       </c>
       <c r="I38" t="n">
-        <v>108.3453241069311</v>
+        <v>108.3453241069312</v>
       </c>
       <c r="J38" t="n">
-        <v>238.5234148737603</v>
+        <v>238.5234148737604</v>
       </c>
       <c r="K38" t="n">
         <v>357.4847680790361</v>
@@ -33913,13 +33913,13 @@
         <v>404.1292533099495</v>
       </c>
       <c r="Q38" t="n">
-        <v>303.4842388600572</v>
+        <v>303.4842388600573</v>
       </c>
       <c r="R38" t="n">
         <v>176.5345169686016</v>
       </c>
       <c r="S38" t="n">
-        <v>64.04044025904139</v>
+        <v>64.0404402590414</v>
       </c>
       <c r="T38" t="n">
         <v>12.30222829331667</v>
@@ -33965,25 +33965,25 @@
         <v>1.503660178346508</v>
       </c>
       <c r="H39" t="n">
-        <v>14.5221917224518</v>
+        <v>14.52219172245181</v>
       </c>
       <c r="I39" t="n">
         <v>51.770756140439</v>
       </c>
       <c r="J39" t="n">
-        <v>142.0629118498339</v>
+        <v>142.062911849834</v>
       </c>
       <c r="K39" t="n">
         <v>242.80814379905</v>
       </c>
       <c r="L39" t="n">
-        <v>326.4855137238767</v>
+        <v>326.4855137238768</v>
       </c>
       <c r="M39" t="n">
         <v>380.9931951889376</v>
       </c>
       <c r="N39" t="n">
-        <v>391.0769513849543</v>
+        <v>391.0769513849544</v>
       </c>
       <c r="O39" t="n">
         <v>357.7590074331712</v>
@@ -33992,19 +33992,19 @@
         <v>287.1331440563609</v>
       </c>
       <c r="Q39" t="n">
-        <v>191.9409027657753</v>
+        <v>191.9409027657754</v>
       </c>
       <c r="R39" t="n">
-        <v>93.35883107312797</v>
+        <v>93.35883107312799</v>
       </c>
       <c r="S39" t="n">
         <v>27.92982831270815</v>
       </c>
       <c r="T39" t="n">
-        <v>6.060805718861581</v>
+        <v>6.060805718861582</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09892501173332295</v>
+        <v>0.09892501173332297</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,22 +34041,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.260618182306606</v>
+        <v>1.260618182306607</v>
       </c>
       <c r="H40" t="n">
         <v>11.20804165723511</v>
       </c>
       <c r="I40" t="n">
-        <v>37.91022679154778</v>
+        <v>37.91022679154779</v>
       </c>
       <c r="J40" t="n">
-        <v>89.12570548907708</v>
+        <v>89.12570548907709</v>
       </c>
       <c r="K40" t="n">
-        <v>146.4609124534402</v>
+        <v>146.4609124534403</v>
       </c>
       <c r="L40" t="n">
-        <v>187.4195432131113</v>
+        <v>187.4195432131114</v>
       </c>
       <c r="M40" t="n">
         <v>197.6076301592074</v>
@@ -34068,22 +34068,22 @@
         <v>178.1826499863921</v>
       </c>
       <c r="P40" t="n">
-        <v>152.4660390673371</v>
+        <v>152.4660390673372</v>
       </c>
       <c r="Q40" t="n">
         <v>105.5595825202378</v>
       </c>
       <c r="R40" t="n">
-        <v>56.68197754262249</v>
+        <v>56.6819775426225</v>
       </c>
       <c r="S40" t="n">
-        <v>21.96913686801603</v>
+        <v>21.96913686801604</v>
       </c>
       <c r="T40" t="n">
         <v>5.386277688037318</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06876099176217862</v>
+        <v>0.06876099176217863</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.810331991620025</v>
+        <v>2.810331991620026</v>
       </c>
       <c r="H41" t="n">
-        <v>28.78131250917859</v>
+        <v>28.7813125091786</v>
       </c>
       <c r="I41" t="n">
-        <v>108.3453241069311</v>
+        <v>108.3453241069312</v>
       </c>
       <c r="J41" t="n">
-        <v>238.5234148737603</v>
+        <v>238.5234148737604</v>
       </c>
       <c r="K41" t="n">
         <v>357.4847680790361</v>
@@ -34150,13 +34150,13 @@
         <v>404.1292533099495</v>
       </c>
       <c r="Q41" t="n">
-        <v>303.4842388600572</v>
+        <v>303.4842388600573</v>
       </c>
       <c r="R41" t="n">
         <v>176.5345169686016</v>
       </c>
       <c r="S41" t="n">
-        <v>64.04044025904139</v>
+        <v>64.0404402590414</v>
       </c>
       <c r="T41" t="n">
         <v>12.30222829331667</v>
@@ -34202,25 +34202,25 @@
         <v>1.503660178346508</v>
       </c>
       <c r="H42" t="n">
-        <v>14.5221917224518</v>
+        <v>14.52219172245181</v>
       </c>
       <c r="I42" t="n">
         <v>51.770756140439</v>
       </c>
       <c r="J42" t="n">
-        <v>142.0629118498339</v>
+        <v>142.062911849834</v>
       </c>
       <c r="K42" t="n">
         <v>242.80814379905</v>
       </c>
       <c r="L42" t="n">
-        <v>326.4855137238767</v>
+        <v>326.4855137238768</v>
       </c>
       <c r="M42" t="n">
         <v>380.9931951889376</v>
       </c>
       <c r="N42" t="n">
-        <v>391.0769513849543</v>
+        <v>391.0769513849544</v>
       </c>
       <c r="O42" t="n">
         <v>357.7590074331712</v>
@@ -34229,19 +34229,19 @@
         <v>287.1331440563609</v>
       </c>
       <c r="Q42" t="n">
-        <v>191.9409027657753</v>
+        <v>191.9409027657754</v>
       </c>
       <c r="R42" t="n">
-        <v>93.35883107312797</v>
+        <v>93.35883107312799</v>
       </c>
       <c r="S42" t="n">
         <v>27.92982831270815</v>
       </c>
       <c r="T42" t="n">
-        <v>6.060805718861581</v>
+        <v>6.060805718861582</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09892501173332295</v>
+        <v>0.09892501173332297</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,22 +34278,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.260618182306606</v>
+        <v>1.260618182306607</v>
       </c>
       <c r="H43" t="n">
         <v>11.20804165723511</v>
       </c>
       <c r="I43" t="n">
-        <v>37.91022679154778</v>
+        <v>37.91022679154779</v>
       </c>
       <c r="J43" t="n">
-        <v>89.12570548907708</v>
+        <v>89.12570548907709</v>
       </c>
       <c r="K43" t="n">
-        <v>146.4609124534402</v>
+        <v>146.4609124534403</v>
       </c>
       <c r="L43" t="n">
-        <v>187.4195432131113</v>
+        <v>187.4195432131114</v>
       </c>
       <c r="M43" t="n">
         <v>197.6076301592074</v>
@@ -34305,22 +34305,22 @@
         <v>178.1826499863921</v>
       </c>
       <c r="P43" t="n">
-        <v>152.4660390673371</v>
+        <v>152.4660390673372</v>
       </c>
       <c r="Q43" t="n">
         <v>105.5595825202378</v>
       </c>
       <c r="R43" t="n">
-        <v>56.68197754262249</v>
+        <v>56.6819775426225</v>
       </c>
       <c r="S43" t="n">
-        <v>21.96913686801603</v>
+        <v>21.96913686801604</v>
       </c>
       <c r="T43" t="n">
         <v>5.386277688037318</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06876099176217862</v>
+        <v>0.06876099176217863</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.810331991620025</v>
+        <v>2.810331991620026</v>
       </c>
       <c r="H44" t="n">
-        <v>28.78131250917859</v>
+        <v>28.7813125091786</v>
       </c>
       <c r="I44" t="n">
-        <v>108.3453241069311</v>
+        <v>108.3453241069312</v>
       </c>
       <c r="J44" t="n">
-        <v>238.5234148737603</v>
+        <v>238.5234148737604</v>
       </c>
       <c r="K44" t="n">
         <v>357.4847680790361</v>
@@ -34387,13 +34387,13 @@
         <v>404.1292533099495</v>
       </c>
       <c r="Q44" t="n">
-        <v>303.4842388600572</v>
+        <v>303.4842388600573</v>
       </c>
       <c r="R44" t="n">
         <v>176.5345169686016</v>
       </c>
       <c r="S44" t="n">
-        <v>64.04044025904139</v>
+        <v>64.0404402590414</v>
       </c>
       <c r="T44" t="n">
         <v>12.30222829331667</v>
@@ -34439,25 +34439,25 @@
         <v>1.503660178346508</v>
       </c>
       <c r="H45" t="n">
-        <v>14.5221917224518</v>
+        <v>14.52219172245181</v>
       </c>
       <c r="I45" t="n">
         <v>51.770756140439</v>
       </c>
       <c r="J45" t="n">
-        <v>142.0629118498339</v>
+        <v>142.062911849834</v>
       </c>
       <c r="K45" t="n">
         <v>242.80814379905</v>
       </c>
       <c r="L45" t="n">
-        <v>326.4855137238767</v>
+        <v>326.4855137238768</v>
       </c>
       <c r="M45" t="n">
         <v>380.9931951889376</v>
       </c>
       <c r="N45" t="n">
-        <v>391.0769513849543</v>
+        <v>391.0769513849544</v>
       </c>
       <c r="O45" t="n">
         <v>357.7590074331712</v>
@@ -34466,19 +34466,19 @@
         <v>287.1331440563609</v>
       </c>
       <c r="Q45" t="n">
-        <v>191.9409027657753</v>
+        <v>191.9409027657754</v>
       </c>
       <c r="R45" t="n">
-        <v>93.35883107312797</v>
+        <v>93.35883107312799</v>
       </c>
       <c r="S45" t="n">
         <v>27.92982831270815</v>
       </c>
       <c r="T45" t="n">
-        <v>6.060805718861581</v>
+        <v>6.060805718861582</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09892501173332295</v>
+        <v>0.09892501173332297</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,22 +34515,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.260618182306606</v>
+        <v>1.260618182306607</v>
       </c>
       <c r="H46" t="n">
         <v>11.20804165723511</v>
       </c>
       <c r="I46" t="n">
-        <v>37.91022679154778</v>
+        <v>37.91022679154779</v>
       </c>
       <c r="J46" t="n">
-        <v>89.12570548907708</v>
+        <v>89.12570548907709</v>
       </c>
       <c r="K46" t="n">
-        <v>146.4609124534402</v>
+        <v>146.4609124534403</v>
       </c>
       <c r="L46" t="n">
-        <v>187.4195432131113</v>
+        <v>187.4195432131114</v>
       </c>
       <c r="M46" t="n">
         <v>197.6076301592074</v>
@@ -34542,22 +34542,22 @@
         <v>178.1826499863921</v>
       </c>
       <c r="P46" t="n">
-        <v>152.4660390673371</v>
+        <v>152.4660390673372</v>
       </c>
       <c r="Q46" t="n">
         <v>105.5595825202378</v>
       </c>
       <c r="R46" t="n">
-        <v>56.68197754262249</v>
+        <v>56.6819775426225</v>
       </c>
       <c r="S46" t="n">
-        <v>21.96913686801603</v>
+        <v>21.96913686801604</v>
       </c>
       <c r="T46" t="n">
         <v>5.386277688037318</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06876099176217862</v>
+        <v>0.06876099176217863</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>57.47751034707406</v>
+        <v>57.47751034707412</v>
       </c>
       <c r="K11" t="n">
-        <v>137.3949170340555</v>
+        <v>137.3949170340556</v>
       </c>
       <c r="L11" t="n">
-        <v>207.7250507975903</v>
+        <v>207.7250507975904</v>
       </c>
       <c r="M11" t="n">
-        <v>263.1234740962774</v>
+        <v>263.1234740962775</v>
       </c>
       <c r="N11" t="n">
         <v>272.0414994981497</v>
       </c>
       <c r="O11" t="n">
-        <v>243.4111129313822</v>
+        <v>243.4111129313823</v>
       </c>
       <c r="P11" t="n">
-        <v>172.8962575546799</v>
+        <v>172.89625755468</v>
       </c>
       <c r="Q11" t="n">
-        <v>81.17854898560776</v>
+        <v>81.17854898560782</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35498,13 +35498,13 @@
         <v>238.8591612669193</v>
       </c>
       <c r="N12" t="n">
-        <v>259.735239301621</v>
+        <v>259.7352393016212</v>
       </c>
       <c r="O12" t="n">
-        <v>215.1627629887267</v>
+        <v>215.1627629887268</v>
       </c>
       <c r="P12" t="n">
-        <v>153.1587366420306</v>
+        <v>153.1587366420307</v>
       </c>
       <c r="Q12" t="n">
         <v>134.1183117532497</v>
@@ -35580,13 +35580,13 @@
         <v>237.0411347680206</v>
       </c>
       <c r="O13" t="n">
-        <v>202.7677779004317</v>
+        <v>202.7677779004318</v>
       </c>
       <c r="P13" t="n">
-        <v>149.7445983322306</v>
+        <v>149.7445983322307</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.39753926854337</v>
+        <v>19.39753926854338</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>57.47751034707406</v>
+        <v>57.47751034707376</v>
       </c>
       <c r="K14" t="n">
-        <v>137.3949170340555</v>
+        <v>137.3949170340556</v>
       </c>
       <c r="L14" t="n">
-        <v>207.7250507975903</v>
+        <v>207.7250507975904</v>
       </c>
       <c r="M14" t="n">
-        <v>263.1234740962774</v>
+        <v>263.1234740962775</v>
       </c>
       <c r="N14" t="n">
         <v>272.0414994981497</v>
       </c>
       <c r="O14" t="n">
-        <v>243.4111129313822</v>
+        <v>243.4111129313823</v>
       </c>
       <c r="P14" t="n">
-        <v>172.8962575546799</v>
+        <v>172.89625755468</v>
       </c>
       <c r="Q14" t="n">
-        <v>81.17854898560776</v>
+        <v>81.17854898560782</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>141.3163205235761</v>
+        <v>15.22528518316727</v>
       </c>
       <c r="K15" t="n">
         <v>104.966704824691</v>
@@ -35735,16 +35735,16 @@
         <v>238.8591612669193</v>
       </c>
       <c r="N15" t="n">
-        <v>259.735239301621</v>
+        <v>259.7352393016212</v>
       </c>
       <c r="O15" t="n">
-        <v>215.1627629887267</v>
+        <v>215.1627629887268</v>
       </c>
       <c r="P15" t="n">
-        <v>153.1587366420306</v>
+        <v>153.1587366420307</v>
       </c>
       <c r="Q15" t="n">
-        <v>134.1183117532492</v>
+        <v>260.209347093658</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35817,13 +35817,13 @@
         <v>237.0411347680206</v>
       </c>
       <c r="O16" t="n">
-        <v>202.7677779004317</v>
+        <v>202.7677779004318</v>
       </c>
       <c r="P16" t="n">
-        <v>149.7445983322306</v>
+        <v>149.7445983322307</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.39753926854337</v>
+        <v>19.39753926854338</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>57.477510347074</v>
+        <v>57.47751034707412</v>
       </c>
       <c r="K17" t="n">
-        <v>137.3949170340555</v>
+        <v>137.3949170340556</v>
       </c>
       <c r="L17" t="n">
-        <v>207.7250507975903</v>
+        <v>207.7250507975904</v>
       </c>
       <c r="M17" t="n">
-        <v>263.1234740962774</v>
+        <v>263.1234740962775</v>
       </c>
       <c r="N17" t="n">
         <v>272.0414994981497</v>
       </c>
       <c r="O17" t="n">
-        <v>243.4111129313822</v>
+        <v>243.4111129313823</v>
       </c>
       <c r="P17" t="n">
-        <v>172.8962575546799</v>
+        <v>172.89625755468</v>
       </c>
       <c r="Q17" t="n">
-        <v>81.17854898560776</v>
+        <v>81.17854898560753</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>15.22528518316724</v>
+        <v>15.22528518316727</v>
       </c>
       <c r="K18" t="n">
         <v>104.966704824691</v>
@@ -35972,16 +35972,16 @@
         <v>238.8591612669193</v>
       </c>
       <c r="N18" t="n">
-        <v>259.735239301621</v>
+        <v>259.7352393016212</v>
       </c>
       <c r="O18" t="n">
-        <v>215.1627629887267</v>
+        <v>215.1627629887268</v>
       </c>
       <c r="P18" t="n">
-        <v>153.1587366420306</v>
+        <v>361.4089550559349</v>
       </c>
       <c r="Q18" t="n">
-        <v>260.2093470936584</v>
+        <v>51.95912867975386</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36054,13 +36054,13 @@
         <v>237.0411347680206</v>
       </c>
       <c r="O19" t="n">
-        <v>202.7677779004317</v>
+        <v>202.7677779004318</v>
       </c>
       <c r="P19" t="n">
-        <v>149.7445983322306</v>
+        <v>149.7445983322307</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.39753926854337</v>
+        <v>19.39753926854338</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>57.47751034707406</v>
+        <v>57.47751034707412</v>
       </c>
       <c r="K20" t="n">
-        <v>137.3949170340555</v>
+        <v>137.3949170340556</v>
       </c>
       <c r="L20" t="n">
-        <v>207.7250507975903</v>
+        <v>207.7250507975904</v>
       </c>
       <c r="M20" t="n">
-        <v>263.1234740962774</v>
+        <v>263.1234740962775</v>
       </c>
       <c r="N20" t="n">
-        <v>272.0414994981497</v>
+        <v>272.0414994981493</v>
       </c>
       <c r="O20" t="n">
-        <v>243.4111129313822</v>
+        <v>243.4111129313823</v>
       </c>
       <c r="P20" t="n">
-        <v>172.8962575546799</v>
+        <v>172.89625755468</v>
       </c>
       <c r="Q20" t="n">
-        <v>81.17854898560776</v>
+        <v>81.17854898560782</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>15.22528518316724</v>
+        <v>141.3163205235761</v>
       </c>
       <c r="K21" t="n">
-        <v>313.2169232385953</v>
+        <v>104.966704824691</v>
       </c>
       <c r="L21" t="n">
         <v>187.9311339440026</v>
@@ -36209,16 +36209,16 @@
         <v>238.8591612669193</v>
       </c>
       <c r="N21" t="n">
-        <v>259.735239301621</v>
+        <v>259.7352393016212</v>
       </c>
       <c r="O21" t="n">
-        <v>215.1627629887267</v>
+        <v>215.1627629887268</v>
       </c>
       <c r="P21" t="n">
-        <v>153.1587366420306</v>
+        <v>153.1587366420307</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.95912867975383</v>
+        <v>134.1183117532492</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36291,13 +36291,13 @@
         <v>237.0411347680206</v>
       </c>
       <c r="O22" t="n">
-        <v>202.7677779004317</v>
+        <v>202.7677779004318</v>
       </c>
       <c r="P22" t="n">
-        <v>149.7445983322306</v>
+        <v>149.7445983322307</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.39753926854337</v>
+        <v>19.39753926854338</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>82.91689003850284</v>
+        <v>226.5741255191479</v>
       </c>
       <c r="K23" t="n">
-        <v>137.3949170340555</v>
+        <v>179.3872731858634</v>
       </c>
       <c r="L23" t="n">
-        <v>207.7250507975903</v>
+        <v>207.7250507975904</v>
       </c>
       <c r="M23" t="n">
-        <v>263.1234740962774</v>
+        <v>263.1234740962775</v>
       </c>
       <c r="N23" t="n">
         <v>272.0414994981497</v>
       </c>
       <c r="O23" t="n">
-        <v>243.4111129313822</v>
+        <v>243.4111129313823</v>
       </c>
       <c r="P23" t="n">
-        <v>172.8962575546799</v>
+        <v>172.89625755468</v>
       </c>
       <c r="Q23" t="n">
-        <v>293.4935396455124</v>
+        <v>81.17854898560782</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>26.66539902745194</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>141.3163205235761</v>
+        <v>15.22528518316727</v>
       </c>
       <c r="K24" t="n">
-        <v>104.966704824691</v>
+        <v>109.0280914511335</v>
       </c>
       <c r="L24" t="n">
-        <v>187.9311339440026</v>
+        <v>422.5185495357626</v>
       </c>
       <c r="M24" t="n">
         <v>238.8591612669193</v>
       </c>
       <c r="N24" t="n">
-        <v>259.735239301621</v>
+        <v>259.7352393016212</v>
       </c>
       <c r="O24" t="n">
-        <v>215.1627629887267</v>
+        <v>422.5185495357626</v>
       </c>
       <c r="P24" t="n">
-        <v>262.9950023310107</v>
+        <v>153.1587366420307</v>
       </c>
       <c r="Q24" t="n">
-        <v>262.036416415603</v>
+        <v>51.95912867975386</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36528,13 +36528,13 @@
         <v>237.0411347680206</v>
       </c>
       <c r="O25" t="n">
-        <v>202.7677779004317</v>
+        <v>202.7677779004318</v>
       </c>
       <c r="P25" t="n">
-        <v>149.7445983322306</v>
+        <v>149.7445983322307</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.39753926854337</v>
+        <v>19.39753926854338</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>226.5741255191478</v>
+        <v>226.5741255191479</v>
       </c>
       <c r="K26" t="n">
-        <v>351.2165957722304</v>
+        <v>461.5403296052203</v>
       </c>
       <c r="L26" t="n">
-        <v>207.7250507975903</v>
+        <v>625.3862653480408</v>
       </c>
       <c r="M26" t="n">
-        <v>712.6370075891099</v>
+        <v>263.1234740962775</v>
       </c>
       <c r="N26" t="n">
-        <v>709.3884239101338</v>
+        <v>709.388423910134</v>
       </c>
       <c r="O26" t="n">
         <v>624.2112941941276</v>
@@ -36613,10 +36613,10 @@
         <v>494.6949657261626</v>
       </c>
       <c r="Q26" t="n">
-        <v>293.4935396455124</v>
+        <v>241.6875237823555</v>
       </c>
       <c r="R26" t="n">
-        <v>26.66539902745191</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>141.3163205235761</v>
+        <v>15.22528518316727</v>
       </c>
       <c r="K27" t="n">
-        <v>369.4319418372696</v>
+        <v>212.2624626348395</v>
       </c>
       <c r="L27" t="n">
-        <v>558.7714792474617</v>
+        <v>558.7714792474618</v>
       </c>
       <c r="M27" t="n">
-        <v>300.2632839685778</v>
+        <v>238.8591612669193</v>
       </c>
       <c r="N27" t="n">
-        <v>259.735239301621</v>
+        <v>739.0776136451747</v>
       </c>
       <c r="O27" t="n">
-        <v>215.1627629887267</v>
+        <v>609.0250822654564</v>
       </c>
       <c r="P27" t="n">
-        <v>471.6215052819678</v>
+        <v>153.1587366420307</v>
       </c>
       <c r="Q27" t="n">
-        <v>262.036416415603</v>
+        <v>51.95912867975386</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.60852938262188</v>
+        <v>74.6085293826219</v>
       </c>
       <c r="K28" t="n">
         <v>203.033424637775</v>
       </c>
       <c r="L28" t="n">
-        <v>293.851572483645</v>
+        <v>293.8515724836451</v>
       </c>
       <c r="M28" t="n">
-        <v>316.0335111312655</v>
+        <v>316.0335111312656</v>
       </c>
       <c r="N28" t="n">
         <v>315.8831387782382</v>
       </c>
       <c r="O28" t="n">
-        <v>281.6097819106493</v>
+        <v>281.6097819106494</v>
       </c>
       <c r="P28" t="n">
-        <v>228.5866023424488</v>
+        <v>228.5866023424482</v>
       </c>
       <c r="Q28" t="n">
-        <v>98.23954327876095</v>
+        <v>98.23954327876096</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>226.5741255191478</v>
+        <v>226.5741255191479</v>
       </c>
       <c r="K29" t="n">
         <v>461.5403296052203</v>
@@ -36838,22 +36838,22 @@
         <v>625.3862653480408</v>
       </c>
       <c r="M29" t="n">
-        <v>263.1234740962774</v>
+        <v>712.63700758911</v>
       </c>
       <c r="N29" t="n">
-        <v>630.9170090195255</v>
+        <v>709.388423910134</v>
       </c>
       <c r="O29" t="n">
         <v>624.2112941941276</v>
       </c>
       <c r="P29" t="n">
-        <v>494.6949657261626</v>
+        <v>205.6904070300775</v>
       </c>
       <c r="Q29" t="n">
-        <v>293.4935396455124</v>
+        <v>81.17854898560782</v>
       </c>
       <c r="R29" t="n">
-        <v>26.66539902745191</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>369.4319418372696</v>
       </c>
       <c r="L30" t="n">
-        <v>187.9311339440026</v>
+        <v>558.7714792474618</v>
       </c>
       <c r="M30" t="n">
-        <v>277.2413099953076</v>
+        <v>238.8591612669193</v>
       </c>
       <c r="N30" t="n">
-        <v>259.735239301621</v>
+        <v>259.7352393016212</v>
       </c>
       <c r="O30" t="n">
-        <v>609.0250822654563</v>
+        <v>276.5668856903849</v>
       </c>
       <c r="P30" t="n">
-        <v>471.6215052819678</v>
+        <v>471.6215052819679</v>
       </c>
       <c r="Q30" t="n">
         <v>262.036416415603</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.60852938262188</v>
+        <v>74.6085293826219</v>
       </c>
       <c r="K31" t="n">
         <v>203.033424637775</v>
       </c>
       <c r="L31" t="n">
-        <v>293.851572483645</v>
+        <v>293.8515724836451</v>
       </c>
       <c r="M31" t="n">
-        <v>316.0335111312659</v>
+        <v>316.0335111312656</v>
       </c>
       <c r="N31" t="n">
         <v>315.8831387782382</v>
@@ -37008,7 +37008,7 @@
         <v>228.5866023424482</v>
       </c>
       <c r="Q31" t="n">
-        <v>98.23954327876095</v>
+        <v>98.23954327876096</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>226.5741255191478</v>
+        <v>226.5741255191479</v>
       </c>
       <c r="K32" t="n">
         <v>461.5403296052203</v>
@@ -37075,22 +37075,22 @@
         <v>625.3862653480408</v>
       </c>
       <c r="M32" t="n">
-        <v>263.1234740962774</v>
+        <v>712.63700758911</v>
       </c>
       <c r="N32" t="n">
-        <v>630.9170090195259</v>
+        <v>709.388423910134</v>
       </c>
       <c r="O32" t="n">
-        <v>624.2112941941276</v>
+        <v>335.206735498043</v>
       </c>
       <c r="P32" t="n">
         <v>494.6949657261626</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.4935396455124</v>
+        <v>81.17854898560782</v>
       </c>
       <c r="R32" t="n">
-        <v>26.66539902745191</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>141.3163205235761</v>
+        <v>15.22528518316727</v>
       </c>
       <c r="K33" t="n">
-        <v>369.4319418372696</v>
+        <v>104.966704824691</v>
       </c>
       <c r="L33" t="n">
-        <v>558.7714792474617</v>
+        <v>200.3621733076104</v>
       </c>
       <c r="M33" t="n">
-        <v>238.8591612669193</v>
+        <v>704.5642250169192</v>
       </c>
       <c r="N33" t="n">
-        <v>259.735239301621</v>
+        <v>739.0776136451747</v>
       </c>
       <c r="O33" t="n">
-        <v>276.5668856903851</v>
+        <v>609.0250822654564</v>
       </c>
       <c r="P33" t="n">
-        <v>471.6215052819678</v>
+        <v>153.1587366420307</v>
       </c>
       <c r="Q33" t="n">
-        <v>262.036416415603</v>
+        <v>51.95912867975386</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>203.033424637775</v>
       </c>
       <c r="L34" t="n">
-        <v>293.851572483645</v>
+        <v>293.8515724836451</v>
       </c>
       <c r="M34" t="n">
         <v>316.0335111312656</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>57.47751034707406</v>
+        <v>226.5741255191479</v>
       </c>
       <c r="K35" t="n">
-        <v>137.3949170340555</v>
+        <v>422.6092533823314</v>
       </c>
       <c r="L35" t="n">
-        <v>207.7250507975903</v>
+        <v>207.7250507975904</v>
       </c>
       <c r="M35" t="n">
-        <v>558.4807272008375</v>
+        <v>263.1234740962775</v>
       </c>
       <c r="N35" t="n">
-        <v>558.4807272008375</v>
+        <v>272.0414994981497</v>
       </c>
       <c r="O35" t="n">
-        <v>243.4111129313822</v>
+        <v>243.4111129313823</v>
       </c>
       <c r="P35" t="n">
-        <v>172.8962575546799</v>
+        <v>494.6949657261626</v>
       </c>
       <c r="Q35" t="n">
-        <v>248.8263288427405</v>
+        <v>81.17854898560782</v>
       </c>
       <c r="R35" t="n">
-        <v>26.66539902745191</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>15.22528518316724</v>
+        <v>141.3163205235761</v>
       </c>
       <c r="K36" t="n">
-        <v>104.966704824691</v>
+        <v>369.4319418372696</v>
       </c>
       <c r="L36" t="n">
-        <v>558.4807272008375</v>
+        <v>272.9119640616867</v>
       </c>
       <c r="M36" t="n">
         <v>238.8591612669193</v>
       </c>
       <c r="N36" t="n">
-        <v>259.735239301621</v>
+        <v>558.4807272008376</v>
       </c>
       <c r="O36" t="n">
-        <v>300.4329914618427</v>
+        <v>215.1627629887268</v>
       </c>
       <c r="P36" t="n">
-        <v>471.6215052819678</v>
+        <v>153.1587366420307</v>
       </c>
       <c r="Q36" t="n">
         <v>262.036416415603</v>
@@ -37476,13 +37476,13 @@
         <v>237.0411347680206</v>
       </c>
       <c r="O37" t="n">
-        <v>202.7677779004317</v>
+        <v>202.7677779004318</v>
       </c>
       <c r="P37" t="n">
-        <v>149.7445983322306</v>
+        <v>149.7445983322307</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.39753926854337</v>
+        <v>19.39753926854338</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>57.47751034707406</v>
+        <v>226.5741255191479</v>
       </c>
       <c r="K38" t="n">
-        <v>461.5403296052203</v>
+        <v>137.3949170340556</v>
       </c>
       <c r="L38" t="n">
-        <v>207.7250507975903</v>
+        <v>207.7250507975904</v>
       </c>
       <c r="M38" t="n">
-        <v>263.1234740962774</v>
+        <v>263.1234740962775</v>
       </c>
       <c r="N38" t="n">
         <v>272.0414994981497</v>
       </c>
       <c r="O38" t="n">
-        <v>243.4111129313822</v>
+        <v>316.3104586197526</v>
       </c>
       <c r="P38" t="n">
-        <v>412.5455140154439</v>
+        <v>494.6949657261626</v>
       </c>
       <c r="Q38" t="n">
-        <v>293.4935396455124</v>
+        <v>293.4935396455125</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>15.22528518316724</v>
+        <v>141.3163205235761</v>
       </c>
       <c r="K39" t="n">
         <v>369.4319418372696</v>
       </c>
       <c r="L39" t="n">
-        <v>558.4807272008377</v>
+        <v>558.4807272008374</v>
       </c>
       <c r="M39" t="n">
         <v>238.8591612669193</v>
       </c>
       <c r="N39" t="n">
-        <v>259.735239301621</v>
+        <v>259.7352393016212</v>
       </c>
       <c r="O39" t="n">
-        <v>246.0450421851135</v>
+        <v>215.1627629887268</v>
       </c>
       <c r="P39" t="n">
-        <v>471.6215052819678</v>
+        <v>166.3354614020956</v>
       </c>
       <c r="Q39" t="n">
-        <v>51.95912867975383</v>
+        <v>262.036416415603</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>237.0411347680206</v>
       </c>
       <c r="O40" t="n">
-        <v>202.7677779004317</v>
+        <v>202.7677779004318</v>
       </c>
       <c r="P40" t="n">
-        <v>149.7445983322306</v>
+        <v>149.7445983322307</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.39753926854337</v>
+        <v>19.39753926854338</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>226.5741255191478</v>
+        <v>57.47751034707412</v>
       </c>
       <c r="K41" t="n">
-        <v>210.2942627224271</v>
+        <v>461.5403296052203</v>
       </c>
       <c r="L41" t="n">
-        <v>207.7250507975903</v>
+        <v>207.7250507975904</v>
       </c>
       <c r="M41" t="n">
-        <v>263.1234740962774</v>
+        <v>263.1234740962775</v>
       </c>
       <c r="N41" t="n">
         <v>272.0414994981497</v>
       </c>
       <c r="O41" t="n">
-        <v>243.4111129313822</v>
+        <v>483.0603693921453</v>
       </c>
       <c r="P41" t="n">
-        <v>494.6949657261626</v>
+        <v>172.89625755468</v>
       </c>
       <c r="Q41" t="n">
-        <v>293.4935396455124</v>
+        <v>293.4935396455125</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>369.4319418372696</v>
       </c>
       <c r="L42" t="n">
-        <v>253.194683320966</v>
+        <v>187.9311339440026</v>
       </c>
       <c r="M42" t="n">
         <v>238.8591612669193</v>
       </c>
       <c r="N42" t="n">
-        <v>259.735239301621</v>
+        <v>259.7352393016212</v>
       </c>
       <c r="O42" t="n">
-        <v>215.1627629887267</v>
+        <v>280.4263123656901</v>
       </c>
       <c r="P42" t="n">
-        <v>471.6215052819678</v>
+        <v>471.6215052819679</v>
       </c>
       <c r="Q42" t="n">
         <v>262.036416415603</v>
@@ -37950,13 +37950,13 @@
         <v>237.0411347680206</v>
       </c>
       <c r="O43" t="n">
-        <v>202.7677779004317</v>
+        <v>202.7677779004318</v>
       </c>
       <c r="P43" t="n">
-        <v>149.7445983322306</v>
+        <v>149.7445983322307</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.39753926854337</v>
+        <v>19.39753926854338</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>226.5741255191478</v>
+        <v>226.5741255191479</v>
       </c>
       <c r="K44" t="n">
-        <v>449.0507084492547</v>
+        <v>137.3949170340556</v>
       </c>
       <c r="L44" t="n">
-        <v>207.7250507975903</v>
+        <v>207.7250507975904</v>
       </c>
       <c r="M44" t="n">
-        <v>558.4807272008376</v>
+        <v>263.1234740962775</v>
       </c>
       <c r="N44" t="n">
         <v>272.0414994981497</v>
       </c>
       <c r="O44" t="n">
-        <v>243.4111129313822</v>
+        <v>316.3104586197538</v>
       </c>
       <c r="P44" t="n">
-        <v>172.8962575546799</v>
+        <v>494.6949657261626</v>
       </c>
       <c r="Q44" t="n">
-        <v>81.17854898560776</v>
+        <v>293.4935396455125</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>141.3163205235761</v>
       </c>
       <c r="K45" t="n">
-        <v>104.966704824691</v>
+        <v>369.4319418372696</v>
       </c>
       <c r="L45" t="n">
-        <v>187.9311339440026</v>
+        <v>558.4807272008377</v>
       </c>
       <c r="M45" t="n">
-        <v>558.4807272008376</v>
+        <v>238.8591612669193</v>
       </c>
       <c r="N45" t="n">
-        <v>558.4807272008376</v>
+        <v>259.7352393016212</v>
       </c>
       <c r="O45" t="n">
-        <v>215.1627629887267</v>
+        <v>215.1627629887268</v>
       </c>
       <c r="P45" t="n">
-        <v>182.9832378383753</v>
+        <v>166.3354614020967</v>
       </c>
       <c r="Q45" t="n">
         <v>262.036416415603</v>
@@ -38187,13 +38187,13 @@
         <v>237.0411347680206</v>
       </c>
       <c r="O46" t="n">
-        <v>202.7677779004317</v>
+        <v>202.7677779004318</v>
       </c>
       <c r="P46" t="n">
-        <v>149.7445983322306</v>
+        <v>149.7445983322307</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.39753926854337</v>
+        <v>19.39753926854338</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
